--- a/2023-24 Conditional Formatting Cards/23-24 Conditional Formatting Team Card v6.xlsx
+++ b/2023-24 Conditional Formatting Cards/23-24 Conditional Formatting Team Card v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataAnalystProjects\2023-24 Conditional Formatting Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F295BD-65F0-432B-ACD7-693092610106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A8943-4D29-4D7A-9FDC-30C0734A4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="V9">
         <f>RANK('Raw All Strength'!J9,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <f t="shared" si="5"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="7"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <f t="shared" si="8"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="7"/>
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <f t="shared" si="8"/>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="V14">
         <f>RANK('Raw All Strength'!J14,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
@@ -2842,15 +2842,15 @@
       </c>
       <c r="B15">
         <f>'Raw All Strength'!K15</f>
-        <v>63.85</v>
+        <v>63.44</v>
       </c>
       <c r="C15">
         <f>'Raw All Strength'!L15</f>
-        <v>57.29</v>
+        <v>57.3</v>
       </c>
       <c r="D15">
         <f>'Raw All Strength'!W15</f>
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="E15">
         <f>'Raw All Strength'!X15</f>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G15">
         <f>'Raw All Strength'!U15</f>
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="H15">
         <f>'Raw All Strength'!AQ15</f>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
@@ -2898,11 +2898,11 @@
       </c>
       <c r="P15">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <f>RANK('Raw All Strength'!J15,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -2910,15 +2910,15 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>0.36000000000000032</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="AA15">
         <f>'Raw All Strength'!N15</f>
-        <v>46.73</v>
+        <v>46.49</v>
       </c>
       <c r="AB15">
         <f>'Raw All Strength'!O15</f>
-        <v>40.68</v>
+        <v>40.729999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="P18">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <f t="shared" si="8"/>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
@@ -3242,11 +3242,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="7"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19">
         <f>RANK('Raw All Strength'!J19,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V23">
         <f>RANK('Raw All Strength'!J23,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -3874,11 +3874,11 @@
       </c>
       <c r="B27">
         <f>'Raw All Strength'!K27</f>
-        <v>54.62</v>
+        <v>54.59</v>
       </c>
       <c r="C27">
         <f>'Raw All Strength'!L27</f>
-        <v>62.85</v>
+        <v>62.87</v>
       </c>
       <c r="D27">
         <f>'Raw All Strength'!W27</f>
@@ -3886,15 +3886,15 @@
       </c>
       <c r="E27">
         <f>'Raw All Strength'!X27</f>
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="F27">
         <f>'Raw All Strength'!T27</f>
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="G27">
         <f>'Raw All Strength'!U27</f>
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="H27">
         <f>'Raw All Strength'!AQ27</f>
@@ -3918,11 +3918,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
@@ -3942,11 +3942,11 @@
       </c>
       <c r="X27">
         <f t="shared" si="9"/>
-        <v>0.38999999999999968</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AA27">
         <f>'Raw All Strength'!N27</f>
-        <v>40.28</v>
+        <v>40.25</v>
       </c>
       <c r="AB27">
         <f>'Raw All Strength'!O27</f>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C30">
         <f>'Raw All Strength'!L30</f>
-        <v>56.08</v>
+        <v>55.79</v>
       </c>
       <c r="D30">
         <f>'Raw All Strength'!W30</f>
@@ -4144,11 +4144,11 @@
       </c>
       <c r="E30">
         <f>'Raw All Strength'!X30</f>
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="F30">
         <f>'Raw All Strength'!T30</f>
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="G30">
         <f>'Raw All Strength'!U30</f>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <f t="shared" si="8"/>
@@ -4196,19 +4196,19 @@
       </c>
       <c r="V30">
         <f>RANK('Raw All Strength'!J30,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X30">
         <f t="shared" si="9"/>
-        <v>0.24000000000000021</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="AA30">
         <f>'Raw All Strength'!N30</f>
-        <v>41.67</v>
+        <v>41.7</v>
       </c>
       <c r="AB30">
         <f>'Raw All Strength'!O30</f>
-        <v>40.75</v>
+        <v>40.590000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -4218,11 +4218,11 @@
       </c>
       <c r="B31">
         <f>'Raw All Strength'!K31</f>
-        <v>60.31</v>
+        <v>60.37</v>
       </c>
       <c r="C31">
         <f>'Raw All Strength'!L31</f>
-        <v>64</v>
+        <v>63.83</v>
       </c>
       <c r="D31">
         <f>'Raw All Strength'!W31</f>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="F31">
         <f>'Raw All Strength'!T31</f>
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="G31">
         <f>'Raw All Strength'!U31</f>
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="H31">
         <f>'Raw All Strength'!AQ31</f>
@@ -4282,19 +4282,19 @@
       </c>
       <c r="V31">
         <f>RANK('Raw All Strength'!J31,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="AA31">
         <f>'Raw All Strength'!N31</f>
-        <v>43.06</v>
+        <v>43.1</v>
       </c>
       <c r="AB31">
         <f>'Raw All Strength'!O31</f>
-        <v>44.12</v>
+        <v>44.04</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -4618,7 +4618,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f>'Reg vs No Goalie Math'!I6</f>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="C3">
         <f>'Reg vs No Goalie Math'!J6</f>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D3">
         <f>'Reg vs No Goalie Math'!K6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="str">
         <f>'Reg vs No Goalie Math'!M13</f>
@@ -4643,7 +4643,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19" t="str">
         <f t="shared" ref="K3:K33" si="2">B3</f>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="L3" s="46">
         <f t="shared" ref="L3:L33" si="3">C3</f>
@@ -4651,27 +4651,27 @@
       </c>
       <c r="M3" s="47">
         <f t="shared" ref="M3:M33" si="4">N3-L3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="46">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="46">
         <f t="shared" ref="P3:P33" si="5">D3</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" t="str">
         <f t="shared" si="1"/>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f>'Reg vs No Goalie Math'!I7</f>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="C4">
         <f>'Reg vs No Goalie Math'!J7</f>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D4">
         <f>'Reg vs No Goalie Math'!K7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <f>'Reg vs No Goalie Math'!M12</f>
@@ -4696,7 +4696,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="L4" s="46">
         <f t="shared" si="3"/>
@@ -4704,21 +4704,21 @@
       </c>
       <c r="M4" s="47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="46">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" t="str">
         <f t="shared" si="1"/>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D7">
         <f>'Reg vs No Goalie Math'!K2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
         <f>'Reg vs No Goalie Math'!M2</f>
@@ -4846,11 +4846,11 @@
       </c>
       <c r="G7">
         <f>'Reg vs No Goalie Math'!N2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f>'Reg vs No Goalie Math'!O2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="19" t="str">
@@ -4863,16 +4863,16 @@
       </c>
       <c r="M7" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="46">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="46">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" t="str">
@@ -4969,11 +4969,11 @@
       </c>
       <c r="M9" s="47">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="N9" s="46">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="46">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G10">
         <f>'Reg vs No Goalie Math'!N19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <f>'Reg vs No Goalie Math'!O19</f>
@@ -5075,11 +5075,11 @@
       </c>
       <c r="M11" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="46">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="46">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="D13">
         <f>'Reg vs No Goalie Math'!K16</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="str">
         <f>'Reg vs No Goalie Math'!M23</f>
@@ -5181,16 +5181,16 @@
       </c>
       <c r="M13" s="47">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="46">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="46">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" t="str">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="G17">
         <f>'Reg vs No Goalie Math'!N6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <f>'Reg vs No Goalie Math'!O6</f>
@@ -5393,11 +5393,11 @@
       </c>
       <c r="M17" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="46">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G19">
         <f>'Reg vs No Goalie Math'!N5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <f>'Reg vs No Goalie Math'!O5</f>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H20">
         <f>'Reg vs No Goalie Math'!O11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="str">
@@ -5588,11 +5588,11 @@
       </c>
       <c r="G21">
         <f>'Reg vs No Goalie Math'!N21</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <f>'Reg vs No Goalie Math'!O21</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="str">
@@ -5625,7 +5625,7 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>'Reg vs No Goalie Math'!I17</f>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="C22">
         <f>'Reg vs No Goalie Math'!J17</f>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="D22">
         <f>'Reg vs No Goalie Math'!K17</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F22" t="str">
         <f>'Reg vs No Goalie Math'!M10</f>
@@ -5645,12 +5645,12 @@
       </c>
       <c r="H22">
         <f>'Reg vs No Goalie Math'!O10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="3"/>
@@ -5658,21 +5658,21 @@
       </c>
       <c r="M22" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N22" s="46">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="46">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q22" s="20"/>
       <c r="R22" t="str">
         <f t="shared" si="1"/>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C23">
         <f>'Reg vs No Goalie Math'!J20</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <f>'Reg vs No Goalie Math'!K20</f>
@@ -5707,11 +5707,11 @@
       </c>
       <c r="L23" s="46">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23" s="47">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N23" s="46">
         <f t="shared" si="0"/>
@@ -5784,15 +5784,15 @@
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f>'Reg vs No Goalie Math'!I18</f>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="C25">
         <f>'Reg vs No Goalie Math'!J18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <f>'Reg vs No Goalie Math'!K18</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" t="str">
         <f>'Reg vs No Goalie Math'!M29</f>
@@ -5809,29 +5809,29 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="L25" s="46">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M25" s="47">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="46">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="46">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" t="str">
         <f t="shared" si="1"/>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="C29">
         <f>'Reg vs No Goalie Math'!J19</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <f>'Reg vs No Goalie Math'!K19</f>
@@ -6025,11 +6025,11 @@
       </c>
       <c r="L29" s="46">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M29" s="47">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N29" s="46">
         <f t="shared" si="0"/>
@@ -6264,7 +6264,7 @@
       <c r="L34" s="32"/>
       <c r="M34" s="32">
         <f ca="1">'Best Team All Strength'!B68</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="19"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>'HD math'!N14</f>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="AG2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>'All strength team card math'!Q14</f>
@@ -6521,11 +6521,11 @@
       </c>
       <c r="AL2">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="AQ3">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR3">
         <f>'All strength team card math'!Q30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3">
         <f t="shared" si="3"/>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="U4" s="46">
         <f>'HD math'!G15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="22" t="str">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B5">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f>'HD math'!N30</f>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="X5" s="46">
         <f>'HD math'!H20</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="19"/>
       <c r="AA5" t="str">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
@@ -6929,7 +6929,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="45">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="19" t="str">
         <f t="shared" si="7"/>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="AC6">
         <f>'All strength team card math'!Q19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="AR6">
         <f>'All strength team card math'!Q6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="U7" s="46">
         <f>'HD math'!G26</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="22" t="str">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="X7" s="46">
         <f>'HD math'!H6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="19"/>
       <c r="AA7" t="str">
@@ -7179,7 +7179,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="45">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="R8" s="46">
         <f>'HD math'!F15</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S8" s="24"/>
       <c r="T8" s="22" t="str">
@@ -7304,7 +7304,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="45">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7595,27 +7595,27 @@
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C14">
         <f>'HD math'!N24</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="U14" s="46">
         <f>'HD math'!G19</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="22" t="str">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="R15" s="46">
         <f>'HD math'!F20</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S15" s="24"/>
       <c r="T15" s="22" t="str">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="X15" s="46">
         <f>'HD math'!H15</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="19"/>
     </row>
@@ -7816,11 +7816,11 @@
       </c>
       <c r="C16">
         <f>'HD math'!N20</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="45">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B17">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <f>'HD math'!N9</f>
@@ -7906,7 +7906,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="45">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="19" t="str">
         <f t="shared" si="7"/>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="AE17">
         <f>AC12</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AF17">
         <f>RANK(AE17,$AE$17:$AE$20,1)</f>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="B18">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <f>'HD math'!N31</f>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="F18" s="45">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" s="19" t="str">
         <f t="shared" si="5"/>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="X18" s="46">
         <f>'HD math'!H27</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y18" s="19"/>
       <c r="AA18" t="str">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="C20">
         <f>'HD math'!N23</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -8216,7 +8216,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="22" t="str">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="R21" s="46">
         <f>'HD math'!F16</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S21" s="24"/>
       <c r="T21" s="22" t="str">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="C22">
         <f>'HD math'!N16</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C23">
         <f>'HD math'!N19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="22" t="str">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="U23" s="46">
         <f>'HD math'!G30</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V23" s="24"/>
       <c r="W23" s="22" t="str">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="C31">
         <f>'HD math'!N27</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="22" t="str">
@@ -8766,7 +8766,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -8802,11 +8802,11 @@
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36:C67" si="11">B36-D36</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="46">
         <f t="shared" ref="D36:D67" si="12">B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -8859,11 +8859,11 @@
       </c>
       <c r="C39" s="47">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -9026,11 +9026,11 @@
       </c>
       <c r="B48" s="46">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" s="47">
         <f t="shared" si="11"/>
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D48" s="46">
         <f t="shared" si="12"/>
@@ -9064,11 +9064,11 @@
       </c>
       <c r="B50" s="46">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C50" s="47">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D50" s="46">
         <f t="shared" si="12"/>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="C51" s="47">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="46">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="19"/>
     </row>
@@ -9106,11 +9106,11 @@
       </c>
       <c r="C52" s="47">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="19"/>
     </row>
@@ -9140,11 +9140,11 @@
       </c>
       <c r="B54" s="46">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="47">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="46">
         <f t="shared" si="12"/>
@@ -9178,11 +9178,11 @@
       </c>
       <c r="B56" s="46">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="47">
         <f t="shared" si="11"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D56" s="46">
         <f t="shared" si="12"/>
@@ -9197,11 +9197,11 @@
       </c>
       <c r="B57" s="46">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57" s="47">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="46">
         <f t="shared" si="12"/>
@@ -9349,11 +9349,11 @@
       </c>
       <c r="B65" s="46">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C65" s="47">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" s="46">
         <f t="shared" si="12"/>
@@ -9403,7 +9403,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -9464,8 +9464,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9488,8 +9488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>'HD math'!M14</f>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="AG2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>'All strength team card math'!Q14</f>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="AL2">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
@@ -9863,11 +9863,11 @@
       </c>
       <c r="AQ3">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR3">
         <f>'All strength team card math'!Q30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3">
         <f t="shared" si="3"/>
@@ -9899,7 +9899,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="45">
         <f t="shared" ref="J4:J19" si="6">C18</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4" s="19" t="str">
         <f>A18</f>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="U4" s="46">
         <f>'HD Best Team List'!U4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="22" t="str">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="C5">
         <f>'HD math'!M15</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="4"/>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="AC6">
         <f>'All strength team card math'!Q19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="AR6">
         <f>'All strength team card math'!Q6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="19" t="str">
         <f t="shared" si="5"/>
@@ -10294,7 +10294,7 @@
       </c>
       <c r="U7" s="46">
         <f>'HD Best Team List'!U7</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" s="24"/>
       <c r="W7" s="22" t="str">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="R8" s="46">
         <f>'HD Best Team List'!R8</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S8" s="20"/>
       <c r="T8" s="22" t="str">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="C9">
         <f>'HD math'!M29</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="45">
         <f t="shared" si="4"/>
@@ -10519,7 +10519,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="45">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="19" t="str">
         <f t="shared" si="7"/>
@@ -10685,15 +10685,15 @@
       </c>
       <c r="B11">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>'HD math'!M9</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="45">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="19" t="str">
         <f t="shared" si="5"/>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="B12">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <f>'HD math'!M31</f>
@@ -10806,27 +10806,27 @@
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="F13" s="45">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="19" t="str">
         <f t="shared" si="5"/>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="C14">
         <f>'HD math'!M23</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="U14" s="46">
         <f>'HD Best Team List'!U14</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="22" t="str">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="C15">
         <f>'HD math'!M26</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="45">
         <f t="shared" si="4"/>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="R15" s="46">
         <f>'HD Best Team List'!R15</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S15" s="20"/>
       <c r="T15" s="22" t="str">
@@ -11024,11 +11024,11 @@
       </c>
       <c r="C16">
         <f>'HD math'!M16</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="45">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="5"/>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="F17" s="45">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="19" t="str">
         <f t="shared" si="5"/>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="AE17">
         <f>AC12</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AF17">
         <f>RANK(AE17,$AE$17:$AE$20,1)</f>
@@ -11175,15 +11175,15 @@
       </c>
       <c r="B18">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f>'HD math'!M30</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="45">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="19" t="str">
         <f t="shared" si="5"/>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -11419,7 +11419,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="22" t="str">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="R21" s="46">
         <f>'HD Best Team List'!R21</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S21" s="20"/>
       <c r="T21" s="22" t="str">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="C23">
         <f>'HD math'!M20</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="22" t="str">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="U23" s="46">
         <f>'HD Best Team List'!U23</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V23" s="24"/>
       <c r="W23" s="22" t="str">
@@ -11956,7 +11956,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -11992,11 +11992,11 @@
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36:C67" si="11">B36-D36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="46">
         <f t="shared" ref="D36:D67" si="12">B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -12045,11 +12045,11 @@
       </c>
       <c r="B39" s="46">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="47">
         <f t="shared" si="11"/>
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="12"/>
@@ -12121,11 +12121,11 @@
       </c>
       <c r="B43" s="46">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="47">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D43" s="46">
         <f t="shared" si="12"/>
@@ -12159,15 +12159,15 @@
       </c>
       <c r="B45" s="46">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="47">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D45" s="46">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="19"/>
     </row>
@@ -12182,11 +12182,11 @@
       </c>
       <c r="C46" s="47">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -12216,11 +12216,11 @@
       </c>
       <c r="B48" s="46">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="47">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D48" s="46">
         <f t="shared" si="12"/>
@@ -12235,11 +12235,11 @@
       </c>
       <c r="B49" s="46">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="47">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D49" s="46">
         <f t="shared" si="12"/>
@@ -12254,11 +12254,11 @@
       </c>
       <c r="B50" s="46">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="47">
         <f t="shared" si="11"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D50" s="46">
         <f t="shared" si="12"/>
@@ -12292,15 +12292,15 @@
       </c>
       <c r="B52" s="46">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="47">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D52" s="46">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" s="19"/>
     </row>
@@ -12387,11 +12387,11 @@
       </c>
       <c r="B57" s="46">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="47">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="46">
         <f t="shared" si="12"/>
@@ -12593,7 +12593,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -12666,8 +12666,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12690,8 +12690,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="E2">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="J2">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="N2">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card'!$A2,'All strength team card math'!$H:$H,0))</f>
@@ -12924,7 +12924,7 @@
       <c r="V6" s="83"/>
       <c r="W6" s="64">
         <f>N2</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X6" s="83"/>
       <c r="Y6" s="64">
@@ -13043,7 +13043,7 @@
       <c r="V12" s="83"/>
       <c r="W12" s="84">
         <f>E2</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X12" s="83"/>
       <c r="Y12" s="84">
@@ -13155,7 +13155,7 @@
       <c r="V18" s="82"/>
       <c r="W18" s="89">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="X18" s="82"/>
       <c r="Y18" s="82"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="E27">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="J27">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="N27">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card'!$A27,'All strength team card math'!$H:$H,0))</f>
@@ -13455,11 +13455,11 @@
       </c>
       <c r="I28">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A28,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A28,'All strength team card math'!$H:$H,0))</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K28">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A28,'All strength team card math'!$H:$H,0))</f>
@@ -13691,11 +13691,11 @@
       </c>
       <c r="G34">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card'!$A34,'All strength team card math'!$H:$H,0))</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card'!$A34,'All strength team card math'!$H:$H,0))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A34,'All strength team card math'!$H:$H,0))</f>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="K36">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L36">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -13939,15 +13939,15 @@
       </c>
       <c r="H40">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K40">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="M40">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="G43">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
@@ -14069,11 +14069,11 @@
       </c>
       <c r="J43">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K43">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
@@ -14117,7 +14117,7 @@
       <c r="B53" s="37"/>
       <c r="C53" s="50">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -14343,7 +14343,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="66">
         <f>N27</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="66">
@@ -14415,7 +14415,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="66">
         <f>I28</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" s="66">
@@ -14955,7 +14955,7 @@
       <c r="L90" s="19"/>
       <c r="M90" s="66">
         <f>K36</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N90" s="48"/>
       <c r="O90" s="66">
@@ -15211,7 +15211,7 @@
       <c r="J101" s="19"/>
       <c r="K101" s="66">
         <f>I40</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L101" s="19"/>
       <c r="M101" s="66">
@@ -15221,7 +15221,7 @@
       <c r="N101" s="48"/>
       <c r="O101" s="66">
         <f>M40</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P101" s="38"/>
     </row>
@@ -15415,7 +15415,7 @@
       <c r="L110" s="19"/>
       <c r="M110" s="66">
         <f>K43</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N110" s="48"/>
       <c r="O110" s="66">
@@ -15756,7 +15756,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y4pgovp1D2nGM1qcG/31ZvSNokIEGSODNdZlrX5ZM6sVR4nWQEOpDHKmXzgKgTsbe8H4jM3zlG/Cv90uNIaIEA==" saltValue="jXsBopOCHNMr+GnAGMxalA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="E9 G9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
+  <conditionalFormatting sqref="G9 E9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15768,7 +15768,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 I54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
+  <conditionalFormatting sqref="G114 I114 K114 M114">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119 I119 K119 M119 M117 K117 I117 G117">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 G54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15780,7 +15804,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65 I65 K65 K63 I63 G63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="I56 K56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65 G65 K65 K63 I63 G63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -15792,7 +15828,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74 I74 K74 K72 I72 G72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="I65 K65 G65 G63 I63 K63 M63:O63 M65:O65">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74 G74 K74 K72 I72 G72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -15804,7 +15852,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83 I83 K83 K81 I81 G81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="I74 K74 G74 G72 I72 K72 M72:O72 M74:O74">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83 G83 K83 K81 I81 G81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -15816,7 +15876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86 I86 K86 M86">
+  <conditionalFormatting sqref="I86 G86 K86 M86">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -15828,7 +15888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 I92 K92 K90 I90 G90 M90:O90 M92:O92">
+  <conditionalFormatting sqref="I92 G92 K92 K90 I90 G90 M90:O90 M92:O92">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15840,7 +15900,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101 I101 K101 K99 I99 G99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="I92 K92 G92 G90 I90 K90 M90:O90 M92:O92">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101 G101 K101 K99 I99 G99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -15852,7 +15924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110 I110 K110 K108 I108 G108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="I110 G110 K110 K108 I108 G108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15864,7 +15936,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128 I128 K128 M128 M126 K126 I126 G126">
+  <conditionalFormatting sqref="I110 K110 G110 G108 I108 K108 M108:O108 M110:O110">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128 G128 K128 M128 M126 K126 I126 G126">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -15876,7 +15960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G142 I142 K142 M142 M140 K140 I140 G140">
+  <conditionalFormatting sqref="I142 G142 K142 M142 M140 K140 I140 G140">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -15888,7 +15972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83 K83 G83 G81 I81 K81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="K83 I83 G83 G81 I81 K81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15900,7 +15984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101 K101 G101 G99 I99 K99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="K101 I101 G101 G99 I99 K99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15912,32 +15996,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114 G114 K114 M114">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119 G119 K119 M119 M117 K117 I117 G117">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56 I56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="K128 M128 I128 G128 G126 I126 K126 M126">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="15.5"/>
@@ -15948,8 +16008,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 I65 G65 G63 I63 K63 M63:O63 M65:O65">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="K142 M142 I142 G142 G140 I140 K140 M140">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="15.5"/>
@@ -15960,19 +16020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74 I74 G74 G72 I72 K72 M72:O72 M74:O74">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K86 M86 I86 G86">
+  <conditionalFormatting sqref="M86 K86 I86 G86">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15984,31 +16032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92 I92 G92 G90 I90 K90 M90:O90 M92:O92">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110 I110 G110 G108 I108 K108 M108:O108 M110:O110">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114 M114 I114 G114">
+  <conditionalFormatting sqref="M114 K114 I114 G114">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16020,7 +16044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119 M119 I119 G119 G117 I117 K117 M117">
+  <conditionalFormatting sqref="M119 K119 I119 G119 G117 I117 K117 M117">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16032,7 +16056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110 O110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
+  <conditionalFormatting sqref="O110 M110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16040,42 +16064,6 @@
         <cfvo type="num" val="32"/>
         <color rgb="FF0070C0"/>
         <color theme="0" tint="-0.14999847407452621"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128 K128 I128 G128 G126 I126 K126 M126">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142 K142 I142 G142 G140 I140 K140 M140">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8 T8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
@@ -16104,7 +16092,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8 R8 V4:V5 N8 P8 P4:P5 N17:N18">
+  <conditionalFormatting sqref="T8 R8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 T6 R8 V4:V5 N8 P8 P4:P5 N17:N18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -16116,7 +16116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6 U6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
+  <conditionalFormatting sqref="U6 W6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="B2">
         <f>'Best Team All Strength'!B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>'Best Team All Strength'!C2</f>
@@ -16243,11 +16243,11 @@
       </c>
       <c r="E2">
         <f>'Best Team AllStrength No Goalie'!B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f>'Best Team AllStrength No Goalie'!C2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="0"/>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="K2" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M33" si="3">D2</f>
@@ -16267,11 +16267,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N33" si="4">F2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="19">
         <f t="shared" ref="O2:O33" si="5">E2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F5">
         <f>'Best Team AllStrength No Goalie'!C5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="5"/>
@@ -16427,11 +16427,11 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'Best Team All Strength'!A6</f>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="B6">
         <f>'Best Team All Strength'!B6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f>'Best Team All Strength'!C6</f>
@@ -16447,11 +16447,11 @@
       </c>
       <c r="F6">
         <f>'Best Team AllStrength No Goalie'!C6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="K6" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="3"/>
@@ -16467,7 +16467,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" s="19">
         <f t="shared" si="5"/>
@@ -16477,11 +16477,11 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'Best Team All Strength'!A7</f>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="B7">
         <f>'Best Team All Strength'!B7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f>'Best Team All Strength'!C7</f>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="K7" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="3"/>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="E10">
         <f>'Best Team AllStrength No Goalie'!B10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f>'Best Team AllStrength No Goalie'!C10</f>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="O10" s="19">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="E11">
         <f>'Best Team AllStrength No Goalie'!B11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>'Best Team AllStrength No Goalie'!C11</f>
@@ -16721,7 +16721,7 @@
       </c>
       <c r="O11" s="19">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="B16">
         <f>'Best Team All Strength'!B16</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <f>'Best Team All Strength'!C16</f>
@@ -16959,7 +16959,7 @@
       </c>
       <c r="K16" s="19">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
@@ -16977,11 +16977,11 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'Best Team All Strength'!A17</f>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="B17">
         <f>'Best Team All Strength'!B17</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <f>'Best Team All Strength'!C17</f>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="K17" s="19">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
@@ -17027,15 +17027,15 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>'Best Team All Strength'!A18</f>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="B18">
         <f>'Best Team All Strength'!B18</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <f>'Best Team All Strength'!C18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="str">
         <f>'Best Team AllStrength No Goalie'!A18</f>
@@ -17051,15 +17051,15 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="C19">
         <f>'Best Team All Strength'!C19</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="str">
         <f>'Best Team AllStrength No Goalie'!A19</f>
@@ -17097,7 +17097,7 @@
       </c>
       <c r="F19">
         <f>'Best Team AllStrength No Goalie'!C19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="5"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="C20">
         <f>'Best Team All Strength'!C20</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="str">
         <f>'Best Team AllStrength No Goalie'!A20</f>
@@ -17155,7 +17155,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="19">
         <f t="shared" si="2"/>
@@ -17193,11 +17193,11 @@
       </c>
       <c r="E21">
         <f>'Best Team AllStrength No Goalie'!B21</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <f>'Best Team AllStrength No Goalie'!C21</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -17217,11 +17217,11 @@
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O21" s="19">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="AC3">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE3">
         <f t="shared" si="3"/>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="AF3">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -18380,11 +18380,11 @@
       </c>
       <c r="O5">
         <f>RANK(AC5,$AC$2:AC$33,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P5">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <f t="shared" si="11"/>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S6">
         <f>'All Strength Simple Look Math'!V6</f>
@@ -18864,19 +18864,19 @@
       </c>
       <c r="O9">
         <f>RANK(AC9,$AC$2:AC$33,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <f>'All Strength Simple Look Math'!V9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <f t="shared" si="12"/>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <f t="shared" si="10"/>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <f t="shared" si="11"/>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U10">
         <f t="shared" si="13"/>
@@ -19017,7 +19017,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="AB10">
         <f t="shared" si="16"/>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="AK10">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL10">
         <f t="shared" si="18"/>
@@ -19126,7 +19126,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X11">
         <f>'Raw All Strength'!AL11</f>
@@ -19165,7 +19165,7 @@
       </c>
       <c r="AL11">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -19227,11 +19227,11 @@
       </c>
       <c r="O12">
         <f>RANK(AC12,$AC$2:AC$33,1)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <f t="shared" si="11"/>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <f t="shared" si="9"/>
@@ -19352,7 +19352,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13">
         <f t="shared" si="11"/>
@@ -19368,7 +19368,7 @@
       </c>
       <c r="U13">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <f>'Raw All Strength'!AL13</f>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="AB13">
         <f t="shared" si="16"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AC13">
         <f t="shared" si="2"/>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="AK13">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL13">
         <f t="shared" si="18"/>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="S14">
         <f>'All Strength Simple Look Math'!V14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <f t="shared" si="12"/>
@@ -19528,7 +19528,7 @@
       </c>
       <c r="AL14">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
@@ -19538,15 +19538,15 @@
       </c>
       <c r="B15">
         <f>'All Strength Simple Look Math'!AA15</f>
-        <v>46.73</v>
+        <v>46.49</v>
       </c>
       <c r="C15">
         <f>'All Strength Simple Look Math'!AB15</f>
-        <v>40.68</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="D15">
         <f>'All Strength Simple Look Math'!D15</f>
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="E15">
         <f>'All Strength Simple Look Math'!E15</f>
@@ -19558,7 +19558,7 @@
       </c>
       <c r="G15">
         <f>'All Strength Simple Look Math'!G15</f>
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -19566,11 +19566,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <f t="shared" si="11"/>
@@ -19610,7 +19610,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <f>'Raw All Strength'!AL15</f>
@@ -19618,15 +19618,15 @@
       </c>
       <c r="Y15">
         <f t="shared" si="14"/>
-        <v>0.36000000000000032</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="AA15">
         <f t="shared" si="15"/>
-        <v>10.333333333333334</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="AB15">
         <f t="shared" si="16"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC15">
         <f t="shared" si="2"/>
@@ -19645,11 +19645,11 @@
       </c>
       <c r="AK15">
         <f t="shared" si="17"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AL15">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U18">
         <f t="shared" si="13"/>
@@ -19993,11 +19993,11 @@
       </c>
       <c r="AC18">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF18">
         <f t="shared" si="4"/>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="AL18">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S19">
         <f>'All Strength Simple Look Math'!V19</f>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <f t="shared" si="11"/>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U22">
         <f t="shared" si="13"/>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="AA22">
         <f t="shared" si="15"/>
-        <v>11.666666666666666</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="AB22">
         <f t="shared" si="16"/>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="AK22">
         <f t="shared" si="17"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AL22">
         <f t="shared" si="18"/>
@@ -20546,7 +20546,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <f t="shared" si="9"/>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O23">
         <f>RANK(AC23,$AC$2:AC$33,1)</f>
@@ -20562,7 +20562,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q23">
         <f t="shared" si="11"/>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="AB23">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC23">
         <f t="shared" si="2"/>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="AK23">
         <f t="shared" si="17"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL23">
         <f t="shared" si="18"/>
@@ -20655,11 +20655,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <f t="shared" si="7"/>
@@ -20695,7 +20695,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
@@ -20711,11 +20711,11 @@
       </c>
       <c r="AA24">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="AB24">
         <f t="shared" si="16"/>
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
@@ -20990,7 +20990,7 @@
       </c>
       <c r="B27">
         <f>'All Strength Simple Look Math'!AA27</f>
-        <v>40.28</v>
+        <v>40.25</v>
       </c>
       <c r="C27">
         <f>'All Strength Simple Look Math'!AB27</f>
@@ -21002,15 +21002,15 @@
       </c>
       <c r="E27">
         <f>'All Strength Simple Look Math'!E27</f>
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="F27">
         <f>'All Strength Simple Look Math'!F27</f>
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="G27">
         <f>'All Strength Simple Look Math'!G27</f>
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21034,11 +21034,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O27">
         <f>RANK(AC27,$AC$2:AC$33,1)</f>
@@ -21066,15 +21066,15 @@
       </c>
       <c r="X27">
         <f>'Raw All Strength'!AL27</f>
-        <v>90.7</v>
+        <v>90.75</v>
       </c>
       <c r="Y27">
         <f t="shared" si="14"/>
-        <v>0.38999999999999968</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AA27">
         <f t="shared" si="15"/>
-        <v>25.333333333333332</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="AB27">
         <f t="shared" si="16"/>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <f t="shared" si="10"/>
@@ -21167,11 +21167,11 @@
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S28">
         <f>'All Strength Simple Look Math'!V28</f>
@@ -21195,7 +21195,7 @@
       </c>
       <c r="AA28">
         <f t="shared" si="15"/>
-        <v>13.666666666666666</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="AB28">
         <f t="shared" si="16"/>
@@ -21218,7 +21218,7 @@
       </c>
       <c r="AK28">
         <f t="shared" si="17"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL28">
         <f t="shared" si="18"/>
@@ -21324,7 +21324,7 @@
       </c>
       <c r="AC29">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE29">
         <f t="shared" si="3"/>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="AF29">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ29">
         <v>0</v>
@@ -21353,11 +21353,11 @@
       </c>
       <c r="B30">
         <f>'All Strength Simple Look Math'!AA30</f>
-        <v>41.67</v>
+        <v>41.7</v>
       </c>
       <c r="C30">
         <f>'All Strength Simple Look Math'!AB30</f>
-        <v>40.75</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="D30">
         <f>'All Strength Simple Look Math'!D30</f>
@@ -21365,11 +21365,11 @@
       </c>
       <c r="E30">
         <f>'All Strength Simple Look Math'!E30</f>
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="F30">
         <f>'All Strength Simple Look Math'!F30</f>
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="G30">
         <f>'All Strength Simple Look Math'!G30</f>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
@@ -21409,15 +21409,15 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q30">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <f>'All Strength Simple Look Math'!V30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T30">
         <f t="shared" si="12"/>
@@ -21425,15 +21425,15 @@
       </c>
       <c r="U30">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X30">
         <f>'Raw All Strength'!AL30</f>
-        <v>90.86</v>
+        <v>90.8</v>
       </c>
       <c r="Y30">
         <f t="shared" si="14"/>
-        <v>0.24000000000000021</v>
+        <v>0.2200000000000002</v>
       </c>
       <c r="AA30">
         <f t="shared" si="15"/>
@@ -21441,15 +21441,15 @@
       </c>
       <c r="AB30">
         <f t="shared" si="16"/>
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AC30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE30">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30">
         <f t="shared" si="4"/>
@@ -21460,7 +21460,7 @@
       </c>
       <c r="AK30">
         <f t="shared" si="17"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AL30">
         <f t="shared" si="18"/>
@@ -21474,11 +21474,11 @@
       </c>
       <c r="B31">
         <f>'All Strength Simple Look Math'!AA31</f>
-        <v>43.06</v>
+        <v>43.1</v>
       </c>
       <c r="C31">
         <f>'All Strength Simple Look Math'!AB31</f>
-        <v>44.12</v>
+        <v>44.04</v>
       </c>
       <c r="D31">
         <f>'All Strength Simple Look Math'!D31</f>
@@ -21490,11 +21490,11 @@
       </c>
       <c r="F31">
         <f>'All Strength Simple Look Math'!F31</f>
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="G31">
         <f>'All Strength Simple Look Math'!G31</f>
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21522,15 +21522,15 @@
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31">
         <f>RANK(AC31,$AC$2:AC$33,1)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q31">
         <f t="shared" si="11"/>
@@ -21538,7 +21538,7 @@
       </c>
       <c r="S31">
         <f>'All Strength Simple Look Math'!V31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T31">
         <f t="shared" si="12"/>
@@ -21550,11 +21550,11 @@
       </c>
       <c r="X31">
         <f>'Raw All Strength'!AL31</f>
-        <v>90.35</v>
+        <v>90.44</v>
       </c>
       <c r="Y31">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" si="15"/>
@@ -21566,7 +21566,7 @@
       </c>
       <c r="AC31">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE31">
         <f t="shared" si="3"/>
@@ -21574,18 +21574,18 @@
       </c>
       <c r="AF31">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ31">
         <v>0</v>
       </c>
       <c r="AK31">
         <f t="shared" si="17"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL31">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
@@ -21833,7 +21833,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK35">
         <f>SUM(AK2:AK33)</f>
-        <v>3155</v>
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
@@ -22116,7 +22116,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
@@ -22124,7 +22124,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
@@ -22510,39 +22510,39 @@
       </c>
       <c r="B15">
         <f>'Raw All Strength'!AC15</f>
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="C15">
         <f>'Raw All Strength'!AD15</f>
-        <v>10.54</v>
+        <v>10.59</v>
       </c>
       <c r="D15">
         <f>'Raw All Strength'!AJ15</f>
-        <v>82.19</v>
+        <v>82.28</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -22580,19 +22580,19 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -22710,7 +22710,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
@@ -22718,11 +22718,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
@@ -22730,7 +22730,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -22752,7 +22752,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
@@ -22760,23 +22760,23 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -22910,11 +22910,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -22960,7 +22960,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
@@ -23040,15 +23040,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
@@ -23062,15 +23062,15 @@
       </c>
       <c r="B27">
         <f>'Raw All Strength'!AC27</f>
-        <v>10.73</v>
+        <v>10.74</v>
       </c>
       <c r="C27">
         <f>'Raw All Strength'!AD27</f>
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="D27">
         <f>'Raw All Strength'!AJ27</f>
-        <v>82.13</v>
+        <v>82.06</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -23090,7 +23090,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
@@ -23098,7 +23098,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
@@ -23200,15 +23200,15 @@
       </c>
       <c r="B30">
         <f>'Raw All Strength'!AC30</f>
-        <v>12.78</v>
+        <v>12.8</v>
       </c>
       <c r="C30">
         <f>'Raw All Strength'!AD30</f>
-        <v>11.47</v>
+        <v>11.39</v>
       </c>
       <c r="D30">
         <f>'Raw All Strength'!AJ30</f>
-        <v>82.14</v>
+        <v>82.12</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
@@ -23224,15 +23224,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
@@ -23250,11 +23250,11 @@
       </c>
       <c r="C31">
         <f>'Raw All Strength'!AD31</f>
-        <v>11.24</v>
+        <v>11.25</v>
       </c>
       <c r="D31">
         <f>'Raw All Strength'!AJ31</f>
-        <v>79.63</v>
+        <v>79.88</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -23636,7 +23636,7 @@
       </c>
       <c r="L5">
         <f>'All strength team card math'!O5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -23646,7 +23646,7 @@
       </c>
       <c r="B6">
         <f>'All strength team card math'!Q6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <f>'All strength team card math'!S6</f>
@@ -23796,11 +23796,11 @@
       </c>
       <c r="B9">
         <f>'All strength team card math'!Q9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f>'All strength team card math'!T9</f>
@@ -23836,7 +23836,7 @@
       </c>
       <c r="L9">
         <f>'All strength team card math'!O9</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -23854,7 +23854,7 @@
       </c>
       <c r="D10">
         <f>'All strength team card math'!T10</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <f>'All strength team card math'!I10</f>
@@ -23866,7 +23866,7 @@
       </c>
       <c r="G10">
         <f>'All strength team card math'!M10</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <f>'All strength team card math'!U10</f>
@@ -23920,7 +23920,7 @@
       </c>
       <c r="H11">
         <f>'All strength team card math'!U11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <f>'All strength team card math'!J11</f>
@@ -23986,7 +23986,7 @@
       </c>
       <c r="L12">
         <f>'All strength team card math'!O12</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -24020,7 +24020,7 @@
       </c>
       <c r="H13">
         <f>'All strength team card math'!U13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <f>'All strength team card math'!J13</f>
@@ -24028,7 +24028,7 @@
       </c>
       <c r="J13">
         <f>'All strength team card math'!L13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <f>'All strength team card math'!N13</f>
@@ -24050,7 +24050,7 @@
       </c>
       <c r="C14">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <f>'All strength team card math'!T14</f>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="E15">
         <f>'All strength team card math'!I15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <f>'All strength team card math'!K15</f>
@@ -24120,11 +24120,11 @@
       </c>
       <c r="H15">
         <f>'All strength team card math'!U15</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <f>'All strength team card math'!J15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <f>'All strength team card math'!L15</f>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="D18">
         <f>'All strength team card math'!T18</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <f>'All strength team card math'!I18</f>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="B19">
         <f>'All strength team card math'!Q19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <f>'All strength team card math'!S19</f>
@@ -24454,7 +24454,7 @@
       </c>
       <c r="D22">
         <f>'All strength team card math'!T22</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <f>'All strength team card math'!I22</f>
@@ -24462,7 +24462,7 @@
       </c>
       <c r="F22">
         <f>'All strength team card math'!K22</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <f>'All strength team card math'!M22</f>
@@ -24528,11 +24528,11 @@
       </c>
       <c r="J23">
         <f>'All strength team card math'!L23</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <f>'All strength team card math'!N23</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23">
         <f>'All strength team card math'!O23</f>
@@ -24554,11 +24554,11 @@
       </c>
       <c r="D24">
         <f>'All strength team card math'!T24</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <f>'All strength team card math'!I24</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <f>'All strength team card math'!K24</f>
@@ -24574,7 +24574,7 @@
       </c>
       <c r="I24">
         <f>'All strength team card math'!J24</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <f>'All strength team card math'!L24</f>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="G27">
         <f>'All strength team card math'!M27</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <f>'All strength team card math'!U27</f>
@@ -24732,7 +24732,7 @@
       </c>
       <c r="K27">
         <f>'All strength team card math'!N27</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27">
         <f>'All strength team card math'!O27</f>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="B28">
         <f>'All strength team card math'!Q28</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <f>'All strength team card math'!S28</f>
@@ -24766,7 +24766,7 @@
       </c>
       <c r="G28">
         <f>'All strength team card math'!M28</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <f>'All strength team card math'!U28</f>
@@ -24846,11 +24846,11 @@
       </c>
       <c r="B30">
         <f>'All strength team card math'!Q30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <f>'All strength team card math'!T30</f>
@@ -24870,15 +24870,15 @@
       </c>
       <c r="H30">
         <f>'All strength team card math'!U30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <f>'All strength team card math'!J30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <f>'All strength team card math'!L30</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f>'All strength team card math'!N30</f>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="C31">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <f>'All strength team card math'!T31</f>
@@ -24932,11 +24932,11 @@
       </c>
       <c r="K31">
         <f>'All strength team card math'!N31</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <f>'All strength team card math'!O31</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -26729,13 +26729,13 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>60.802599999999998</v>
+        <v>60.7913</v>
       </c>
       <c r="E15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>22</v>
@@ -26744,76 +26744,76 @@
         <v>11</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15">
-        <v>0.60699999999999998</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="K15">
-        <v>63.85</v>
+        <v>63.44</v>
       </c>
       <c r="L15">
-        <v>57.29</v>
+        <v>57.3</v>
       </c>
       <c r="M15">
-        <v>52.71</v>
+        <v>52.54</v>
       </c>
       <c r="N15">
-        <v>46.73</v>
+        <v>46.49</v>
       </c>
       <c r="O15">
-        <v>40.68</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="P15">
-        <v>53.46</v>
+        <v>53.3</v>
       </c>
       <c r="Q15">
-        <v>32.17</v>
+        <v>31.99</v>
       </c>
       <c r="R15">
-        <v>28</v>
+        <v>27.93</v>
       </c>
       <c r="S15">
-        <v>53.47</v>
+        <v>53.39</v>
       </c>
       <c r="T15">
         <v>3.07</v>
       </c>
       <c r="U15">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="V15">
-        <v>55.05</v>
+        <v>55.11</v>
       </c>
       <c r="W15">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="X15">
         <v>2.87</v>
       </c>
       <c r="Y15">
-        <v>52.91</v>
+        <v>52.73</v>
       </c>
       <c r="Z15">
-        <v>29.05</v>
+        <v>28.83</v>
       </c>
       <c r="AA15">
-        <v>26.64</v>
+        <v>26.66</v>
       </c>
       <c r="AB15">
-        <v>52.16</v>
+        <v>51.95</v>
       </c>
       <c r="AC15">
-        <v>11.8</v>
+        <v>11.72</v>
       </c>
       <c r="AD15">
-        <v>10.54</v>
+        <v>10.59</v>
       </c>
       <c r="AE15">
-        <v>52.81</v>
+        <v>52.52</v>
       </c>
       <c r="AF15">
         <v>1.56</v>
@@ -26822,16 +26822,16 @@
         <v>1.21</v>
       </c>
       <c r="AH15">
-        <v>56.35</v>
+        <v>56.28</v>
       </c>
       <c r="AI15">
         <v>20.48</v>
       </c>
       <c r="AJ15">
-        <v>82.19</v>
+        <v>82.28</v>
       </c>
       <c r="AK15">
-        <v>9.5500000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="AL15">
         <v>91.04</v>
@@ -28157,10 +28157,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>60.571100000000001</v>
+        <v>60.5745</v>
       </c>
       <c r="E27">
         <v>38</v>
@@ -28169,103 +28169,103 @@
         <v>30</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>34</v>
       </c>
       <c r="I27">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27">
         <v>0.55600000000000005</v>
       </c>
       <c r="K27">
-        <v>54.62</v>
+        <v>54.59</v>
       </c>
       <c r="L27">
-        <v>62.85</v>
+        <v>62.87</v>
       </c>
       <c r="M27">
-        <v>46.5</v>
+        <v>46.47</v>
       </c>
       <c r="N27">
-        <v>40.28</v>
+        <v>40.25</v>
       </c>
       <c r="O27">
         <v>46.46</v>
       </c>
       <c r="P27">
-        <v>46.44</v>
+        <v>46.42</v>
       </c>
       <c r="Q27">
-        <v>28.32</v>
+        <v>28.37</v>
       </c>
       <c r="R27">
-        <v>32.119999999999997</v>
+        <v>32.14</v>
       </c>
       <c r="S27">
-        <v>46.86</v>
+        <v>46.88</v>
       </c>
       <c r="T27">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="U27">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="V27">
-        <v>48.68</v>
+        <v>48.57</v>
       </c>
       <c r="W27">
         <v>2.89</v>
       </c>
       <c r="X27">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="Y27">
-        <v>46.11</v>
+        <v>46.12</v>
       </c>
       <c r="Z27">
-        <v>26.47</v>
+        <v>26.43</v>
       </c>
       <c r="AA27">
-        <v>30.57</v>
+        <v>30.55</v>
       </c>
       <c r="AB27">
-        <v>46.4</v>
+        <v>46.38</v>
       </c>
       <c r="AC27">
-        <v>10.73</v>
+        <v>10.74</v>
       </c>
       <c r="AD27">
-        <v>13.6</v>
+        <v>13.58</v>
       </c>
       <c r="AE27">
-        <v>44.09</v>
+        <v>44.17</v>
       </c>
       <c r="AF27">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AG27">
         <v>1.55</v>
       </c>
       <c r="AH27">
-        <v>48.37</v>
+        <v>48.17</v>
       </c>
       <c r="AI27">
-        <v>19.73</v>
+        <v>19.52</v>
       </c>
       <c r="AJ27">
-        <v>82.13</v>
+        <v>82.06</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>9.89</v>
       </c>
       <c r="AL27">
-        <v>90.7</v>
+        <v>90.75</v>
       </c>
       <c r="AM27">
-        <v>1.0069999999999999</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
@@ -28514,16 +28514,16 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30">
-        <v>60.576099999999997</v>
+        <v>60.568100000000001</v>
       </c>
       <c r="E30">
         <v>45</v>
       </c>
       <c r="F30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -28535,94 +28535,94 @@
         <v>98</v>
       </c>
       <c r="J30">
-        <v>0.69</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="K30">
         <v>58.12</v>
       </c>
       <c r="L30">
-        <v>56.08</v>
+        <v>55.79</v>
       </c>
       <c r="M30">
-        <v>50.89</v>
+        <v>51.02</v>
       </c>
       <c r="N30">
-        <v>41.67</v>
+        <v>41.7</v>
       </c>
       <c r="O30">
-        <v>40.75</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="P30">
-        <v>50.56</v>
+        <v>50.68</v>
       </c>
       <c r="Q30">
-        <v>27.98</v>
+        <v>27.92</v>
       </c>
       <c r="R30">
-        <v>28.56</v>
+        <v>28.43</v>
       </c>
       <c r="S30">
-        <v>49.49</v>
+        <v>49.55</v>
       </c>
       <c r="T30">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="U30">
         <v>2.61</v>
       </c>
       <c r="V30">
-        <v>57.11</v>
+        <v>56.92</v>
       </c>
       <c r="W30">
         <v>3.14</v>
       </c>
       <c r="X30">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Y30">
-        <v>52.4</v>
+        <v>52.52</v>
       </c>
       <c r="Z30">
-        <v>28.81</v>
+        <v>28.8</v>
       </c>
       <c r="AA30">
-        <v>26.27</v>
+        <v>26.09</v>
       </c>
       <c r="AB30">
-        <v>52.3</v>
+        <v>52.47</v>
       </c>
       <c r="AC30">
-        <v>12.78</v>
+        <v>12.8</v>
       </c>
       <c r="AD30">
-        <v>11.47</v>
+        <v>11.39</v>
       </c>
       <c r="AE30">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="AF30">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AG30">
         <v>1.42</v>
       </c>
       <c r="AH30">
-        <v>56.41</v>
+        <v>56.36</v>
       </c>
       <c r="AI30">
-        <v>22.18</v>
+        <v>22.06</v>
       </c>
       <c r="AJ30">
-        <v>82.14</v>
+        <v>82.12</v>
       </c>
       <c r="AK30">
-        <v>12.41</v>
+        <v>12.37</v>
       </c>
       <c r="AL30">
-        <v>90.86</v>
+        <v>90.8</v>
       </c>
       <c r="AM30">
-        <v>1.0329999999999999</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
@@ -28633,13 +28633,13 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>60.698300000000003</v>
+        <v>60.7</v>
       </c>
       <c r="E31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
         <v>25</v>
@@ -28648,49 +28648,49 @@
         <v>7</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I31">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J31">
-        <v>0.59299999999999997</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="K31">
-        <v>60.31</v>
+        <v>60.37</v>
       </c>
       <c r="L31">
-        <v>64</v>
+        <v>63.83</v>
       </c>
       <c r="M31">
-        <v>48.52</v>
+        <v>48.6</v>
       </c>
       <c r="N31">
-        <v>43.06</v>
+        <v>43.1</v>
       </c>
       <c r="O31">
-        <v>44.12</v>
+        <v>44.04</v>
       </c>
       <c r="P31">
-        <v>49.39</v>
+        <v>49.46</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>31.03</v>
       </c>
       <c r="R31">
-        <v>30.13</v>
+        <v>30.16</v>
       </c>
       <c r="S31">
-        <v>50.7</v>
+        <v>50.72</v>
       </c>
       <c r="T31">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="U31">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="V31">
-        <v>51.87</v>
+        <v>51.97</v>
       </c>
       <c r="W31">
         <v>2.99</v>
@@ -28699,25 +28699,25 @@
         <v>2.91</v>
       </c>
       <c r="Y31">
-        <v>50.64</v>
+        <v>50.67</v>
       </c>
       <c r="Z31">
-        <v>28.93</v>
+        <v>28.94</v>
       </c>
       <c r="AA31">
-        <v>29.61</v>
+        <v>29.53</v>
       </c>
       <c r="AB31">
-        <v>49.42</v>
+        <v>49.5</v>
       </c>
       <c r="AC31">
         <v>11.65</v>
       </c>
       <c r="AD31">
-        <v>11.24</v>
+        <v>11.25</v>
       </c>
       <c r="AE31">
-        <v>50.89</v>
+        <v>50.88</v>
       </c>
       <c r="AF31">
         <v>1.57</v>
@@ -28726,19 +28726,19 @@
         <v>1.41</v>
       </c>
       <c r="AH31">
-        <v>52.61</v>
+        <v>52.8</v>
       </c>
       <c r="AI31">
-        <v>19.41</v>
+        <v>19.45</v>
       </c>
       <c r="AJ31">
-        <v>79.63</v>
+        <v>79.88</v>
       </c>
       <c r="AK31">
-        <v>10.11</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="AL31">
-        <v>90.35</v>
+        <v>90.44</v>
       </c>
       <c r="AM31">
         <v>1.0049999999999999</v>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="B2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>'All strength team card math'!Q14</f>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="AG2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>'All strength team card math'!Q14</f>
@@ -29203,11 +29203,11 @@
       </c>
       <c r="AL2">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
@@ -29325,11 +29325,11 @@
       </c>
       <c r="AQ3">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR3">
         <f>'All strength team card math'!Q30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS3">
         <f t="shared" si="3"/>
@@ -29361,11 +29361,11 @@
       <c r="I4" s="19"/>
       <c r="J4" s="45">
         <f t="shared" ref="J4:J19" si="6">C18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="19" t="str">
         <f>A18</f>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="L4" s="19"/>
       <c r="P4" s="19"/>
@@ -29384,7 +29384,7 @@
       </c>
       <c r="U4" s="45">
         <f>'All strength team card math'!U13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" s="19"/>
       <c r="W4" s="19" t="str">
@@ -29422,7 +29422,7 @@
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -29486,7 +29486,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="45">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="19" t="str">
         <f t="shared" ref="K5:K19" si="7">A19</f>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
@@ -29588,15 +29588,15 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>'All strength team card math'!H9</f>
-        <v>Colorado Avalanche</v>
+        <f>'All strength team card math'!H30</f>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="B6">
-        <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <f>'All strength team card math'!S30</f>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f>'All strength team card math'!Q9</f>
+        <f>'All strength team card math'!Q30</f>
         <v>5</v>
       </c>
       <c r="F6" s="45">
@@ -29611,7 +29611,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="45">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="19" t="str">
         <f t="shared" si="7"/>
@@ -29634,7 +29634,7 @@
       </c>
       <c r="U6" s="45">
         <f>'All strength team card math'!U11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6" s="19"/>
       <c r="W6" s="19" t="str">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="AC6">
         <f>'All strength team card math'!Q19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
@@ -29704,7 +29704,7 @@
       </c>
       <c r="AR6">
         <f>'All strength team card math'!Q6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
@@ -29713,15 +29713,15 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>'All strength team card math'!H30</f>
-        <v>Vancouver Canucks</v>
+        <f>'All strength team card math'!H9</f>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="B7">
-        <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <f>'All strength team card math'!S9</f>
+        <v>2</v>
       </c>
       <c r="C7">
-        <f>'All strength team card math'!Q30</f>
+        <f>'All strength team card math'!Q9</f>
         <v>6</v>
       </c>
       <c r="F7" s="45">
@@ -29759,7 +29759,7 @@
       </c>
       <c r="U7" s="45">
         <f>'All strength team card math'!U30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" s="19"/>
       <c r="W7" s="19" t="str">
@@ -29855,7 +29855,7 @@
       </c>
       <c r="G8" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -29884,7 +29884,7 @@
       </c>
       <c r="U8" s="45">
         <f>'All strength team card math'!U15</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="19" t="str">
@@ -29980,7 +29980,7 @@
       </c>
       <c r="G9" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="R9" s="45">
         <f>'All strength team card math'!T18</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19" t="str">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="R10" s="45">
         <f>'All strength team card math'!T24</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="str">
@@ -30265,7 +30265,7 @@
       </c>
       <c r="X12" s="45">
         <f>'All strength team card math'!O9</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="AA12" t="s">
@@ -30277,27 +30277,27 @@
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="R13" s="45">
         <f>'All strength team card math'!T22</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19" t="str">
@@ -30361,7 +30361,7 @@
       </c>
       <c r="X13" s="45">
         <f>'All strength team card math'!O5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" s="19"/>
     </row>
@@ -30422,7 +30422,7 @@
       </c>
       <c r="X14" s="45">
         <f>'All strength team card math'!O31</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y14" s="19"/>
     </row>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="B16">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <f>'All strength team card math'!Q31</f>
@@ -30565,15 +30565,15 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>'All strength team card math'!H6</f>
-        <v>Calgary Flames</v>
+        <f>'All strength team card math'!H22</f>
+        <v>Ottawa Senators</v>
       </c>
       <c r="B17">
-        <f>'All strength team card math'!S6</f>
-        <v>22</v>
+        <f>'All strength team card math'!S22</f>
+        <v>26</v>
       </c>
       <c r="C17">
-        <f>'All strength team card math'!Q6</f>
+        <f>'All strength team card math'!Q22</f>
         <v>16</v>
       </c>
       <c r="F17" s="45">
@@ -30637,7 +30637,7 @@
       </c>
       <c r="AE17">
         <f>AC12</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
       <c r="AF17">
         <f>RANK(AE17,$AE$17:$AE$20,1)</f>
@@ -30646,16 +30646,16 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>'All strength team card math'!H22</f>
-        <v>Ottawa Senators</v>
+        <f>'All strength team card math'!H6</f>
+        <v>Calgary Flames</v>
       </c>
       <c r="B18">
-        <f>'All strength team card math'!S22</f>
-        <v>26</v>
+        <f>'All strength team card math'!S6</f>
+        <v>22</v>
       </c>
       <c r="C18">
-        <f>'All strength team card math'!Q22</f>
-        <v>16</v>
+        <f>'All strength team card math'!Q6</f>
+        <v>17</v>
       </c>
       <c r="F18" s="45">
         <f t="shared" si="4"/>
@@ -30710,7 +30710,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.375</v>
+        <v>15.25</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -30718,7 +30718,7 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
@@ -30736,7 +30736,7 @@
       </c>
       <c r="C19">
         <f>'All strength team card math'!Q28</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" si="4"/>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="G19" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -30799,7 +30799,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16.25</v>
+        <v>16.375</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -30817,7 +30817,7 @@
       </c>
       <c r="C20">
         <f>'All strength team card math'!Q19</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -30860,7 +30860,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -30898,7 +30898,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19" t="str">
@@ -30968,7 +30968,7 @@
       </c>
       <c r="X22" s="45">
         <f>'All strength team card math'!O12</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" s="19"/>
     </row>
@@ -31034,7 +31034,7 @@
       </c>
       <c r="R24" s="45">
         <f>'All strength team card math'!T10</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="19" t="str">
@@ -31441,7 +31441,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -31477,11 +31477,11 @@
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36:C67" si="11">B36-D36</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="46">
         <f t="shared" ref="D36:D67" si="12">B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -31545,7 +31545,7 @@
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Colorado Avalanche</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="B40" s="46">
         <f t="shared" si="10"/>
@@ -31553,18 +31553,18 @@
       </c>
       <c r="C40" s="47">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="46">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Vancouver Canucks</v>
+        <v>Colorado Avalanche</v>
       </c>
       <c r="B41" s="46">
         <f t="shared" si="10"/>
@@ -31572,11 +31572,11 @@
       </c>
       <c r="C41" s="47">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="19"/>
     </row>
@@ -31743,18 +31743,18 @@
       </c>
       <c r="C50" s="47">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Calgary Flames</v>
+        <v>Ottawa Senators</v>
       </c>
       <c r="B51" s="46">
         <f t="shared" si="10"/>
@@ -31762,30 +31762,30 @@
       </c>
       <c r="C51" s="47">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D51" s="46">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Ottawa Senators</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="B52" s="46">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" s="47">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D52" s="46">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E52" s="19"/>
     </row>
@@ -31796,11 +31796,11 @@
       </c>
       <c r="B53" s="46">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="47">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="12"/>
@@ -31815,11 +31815,11 @@
       </c>
       <c r="B54" s="46">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" s="47">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D54" s="46">
         <f t="shared" si="12"/>
@@ -32078,7 +32078,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -32087,8 +32087,8 @@
       <c r="E68" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:R33">
-    <sortCondition ref="R33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition ref="C33"/>
   </sortState>
   <conditionalFormatting sqref="F4:F19 J4:J19">
     <cfRule type="colorScale" priority="2">
@@ -32126,8 +32126,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32150,8 +32150,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32615,7 +32615,7 @@
       <c r="V18" s="108"/>
       <c r="W18" s="109">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
@@ -32719,7 +32719,7 @@
       </c>
       <c r="F24">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card Dark'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card Dark'!$A24,'All strength team card math'!$H:$H,0))</f>
@@ -32735,7 +32735,7 @@
       </c>
       <c r="J24">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A24,'All strength team card math'!$H:$H,0))</f>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="O24">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
@@ -32792,11 +32792,11 @@
       </c>
       <c r="I25">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card Dark'!$A25,'All strength team card math'!$H:$H,0))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A25,'All strength team card math'!$H:$H,0))</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K25">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A25,'All strength team card math'!$H:$H,0))</f>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="K30">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A30,'All strength team card math'!$H:$H,0))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card Dark'!$A30,'All strength team card math'!$H:$H,0))</f>
@@ -33029,7 +33029,7 @@
       </c>
       <c r="G31">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
@@ -33041,11 +33041,11 @@
       </c>
       <c r="J31">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="D36">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33208,7 +33208,7 @@
       </c>
       <c r="F36">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33224,11 +33224,11 @@
       </c>
       <c r="J36">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K36">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33236,7 +33236,7 @@
       </c>
       <c r="M36">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33244,7 +33244,7 @@
       </c>
       <c r="O36">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -33257,11 +33257,11 @@
       </c>
       <c r="C37">
         <f>INDEX('All strength team card math'!I:I,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33301,7 +33301,7 @@
       </c>
       <c r="N37">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O37">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33318,11 +33318,11 @@
       </c>
       <c r="C39">
         <f>INDEX('All strength team card math'!I:I,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -33346,7 +33346,7 @@
       </c>
       <c r="J39">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="O39">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -33419,7 +33419,7 @@
       </c>
       <c r="M40">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card Dark'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -33577,7 +33577,7 @@
       <c r="B53" s="138"/>
       <c r="C53" s="139">
         <f ca="1">TODAY()</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
@@ -33609,7 +33609,7 @@
       <c r="H54" s="58"/>
       <c r="I54" s="116">
         <f>O24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="58"/>
       <c r="K54" s="116">
@@ -33676,7 +33676,7 @@
       <c r="J56" s="58"/>
       <c r="K56" s="116">
         <f>I25</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L56" s="58"/>
       <c r="M56" s="116">
@@ -34017,7 +34017,7 @@
       <c r="L72" s="58"/>
       <c r="M72" s="123">
         <f>K30</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N72" s="117"/>
       <c r="O72" s="123">
@@ -34079,7 +34079,7 @@
       <c r="L74" s="58"/>
       <c r="M74" s="123">
         <f>K31</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N74" s="117"/>
       <c r="O74" s="123">
@@ -34405,7 +34405,7 @@
       <c r="H90" s="58"/>
       <c r="I90" s="123">
         <f>O36</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J90" s="58"/>
       <c r="K90" s="123">
@@ -34415,12 +34415,12 @@
       <c r="L90" s="58"/>
       <c r="M90" s="123">
         <f>K36</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N90" s="117"/>
       <c r="O90" s="123">
         <f>M36</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P90" s="115"/>
     </row>
@@ -34462,7 +34462,7 @@
       <c r="F92" s="58"/>
       <c r="G92" s="123">
         <f>N37</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H92" s="58"/>
       <c r="I92" s="123">
@@ -34604,7 +34604,7 @@
       <c r="H99" s="58"/>
       <c r="I99" s="123">
         <f>O39</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" s="58"/>
       <c r="K99" s="123">
@@ -34681,7 +34681,7 @@
       <c r="N101" s="117"/>
       <c r="O101" s="123">
         <f>M40</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P101" s="115"/>
     </row>
@@ -35216,7 +35216,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xiCqPbP2hNoAobbbqQSvypcmJdi0wqUE6/FTbNGkbMFQZfJHDoZGQuZEoVs0daJ9VIhCz7uDbMvZHR1U7yKzMQ==" saltValue="Ngv0rxXLhf1ieAsM2bDOHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="E9 G9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
+  <conditionalFormatting sqref="G9 E9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35228,7 +35228,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 I54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
+  <conditionalFormatting sqref="G86 I86 K86 M86">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128 I128 K128 M128 M126 K126 I126 G126">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142 I142 K142 M142 M140 K140 I140 G140">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 G54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -35240,7 +35276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65 I65 K65 K63 I63 G63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="I65 G65 K65 K63 I63 G63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -35252,7 +35288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74 I74 K74 K72 I72 G72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="I74 G74 K74 K72 I72 G72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -35264,7 +35300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83 I83 K83 K81 I81 G81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="I83 G83 K83 K81 I81 G81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -35276,7 +35312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 I92 K92 K90 I90 G90 M90:O90 M92:O92">
+  <conditionalFormatting sqref="I92 G92 K92 K90 I90 G90 M90:O90 M92:O92">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -35288,7 +35324,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101 I101 K101 K99 I99 G99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="I92 K92 G92 G90 I90 K90 M90:O90 M92:O92">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101 G101 K101 K99 I99 G99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -35300,7 +35348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110 I110 K110 K108 I108 G108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="I110 G110 K110 K108 I108 G108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -35312,7 +35360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114 I114 K114 M114">
+  <conditionalFormatting sqref="I114 G114 K114 M114">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -35324,7 +35372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119 I119 K119 M119 M117 K117 I117 G117">
+  <conditionalFormatting sqref="I119 G119 K119 M119 M117 K117 I117 G117">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -35336,7 +35384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56 K56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
+  <conditionalFormatting sqref="K56 I56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35348,7 +35396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65 K65 G65 G63 I63 K63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="K65 I65 G65 G63 I63 K63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35360,7 +35408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74 K74 G74 G72 I72 K72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="K74 I74 G74 G72 I72 K72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35372,7 +35420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83 K83 G83 G81 I81 K81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="K83 I83 G83 G81 I81 K81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35384,19 +35432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86 G86 K86 M86">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101 K101 G101 G99 I99 K99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="K101 I101 G101 G99 I99 K99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35408,7 +35444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110 K110 G110 G108 I108 K108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="K110 I110 G110 G108 I108 K108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35420,31 +35456,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128 G128 K128 M128 M126 K126 I126 G126">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="K128 M128 I128 G128 G126 I126 K126 M126">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
         <color theme="3" tint="0.39997558519241921"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142 G142 K142 M142 M140 K140 I140 G140">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="K142 M142 I142 G142 G140 I140 K140 M140">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
         <color theme="3" tint="0.39997558519241921"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86 M86 I86 G86">
+  <conditionalFormatting sqref="M86 K86 I86 G86">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35456,19 +35492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92 I92 G92 G90 I90 K90 M90:O90 M92:O92">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114 M114 I114 G114">
+  <conditionalFormatting sqref="M114 K114 I114 G114">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35480,7 +35504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119 M119 I119 G119 G117 I117 K117 M117">
+  <conditionalFormatting sqref="M119 K119 I119 G119 G117 I117 K117 M117">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35492,7 +35516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110 O110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
+  <conditionalFormatting sqref="O110 M110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35500,42 +35524,6 @@
         <cfvo type="num" val="32"/>
         <color rgb="FF0070C0"/>
         <color theme="0" tint="-0.14999847407452621"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128 K128 I128 G128 G126 I126 K126 M126">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142 K142 I142 G142 G140 I140 K140 M140">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8 T8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
@@ -35564,7 +35552,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8 R8 V4:V5 N8 P8 P4:P5 N17:N18">
+  <conditionalFormatting sqref="T8 R8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 T6 R8 V4:V5 N8 P8 P4:P5 N17:N18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -35576,7 +35576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6 U6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
+  <conditionalFormatting sqref="U6 W6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35702,11 +35702,11 @@
       </c>
       <c r="B2">
         <f>'All strength team card math'!S14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>'All strength team card math'!AL14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="str">
@@ -35805,7 +35805,7 @@
       </c>
       <c r="F4" s="45">
         <f>C2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="19" t="str">
         <f>A2</f>
@@ -35838,7 +35838,7 @@
       </c>
       <c r="U4" s="45">
         <f>'Best Team All Strength'!U4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" s="19"/>
       <c r="W4" s="22" t="str">
@@ -35866,7 +35866,7 @@
       </c>
       <c r="C5">
         <f>'All strength team card math'!AL15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="45">
         <f>C3</f>
@@ -35880,7 +35880,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="45">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="19" t="str">
         <f t="shared" si="1"/>
@@ -35931,7 +35931,7 @@
       </c>
       <c r="C6">
         <f>'All strength team card math'!AL11</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="45">
         <f t="shared" ref="F6:F19" si="2">C4</f>
@@ -35968,7 +35968,7 @@
       </c>
       <c r="U6" s="45">
         <f>'Best Team All Strength'!U6</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6" s="19"/>
       <c r="W6" s="22" t="str">
@@ -36000,7 +36000,7 @@
       </c>
       <c r="F7" s="45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="19" t="str">
         <f t="shared" si="3"/>
@@ -36010,7 +36010,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="45">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="1"/>
@@ -36033,7 +36033,7 @@
       </c>
       <c r="U7" s="45">
         <f>'Best Team All Strength'!U7</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" s="19"/>
       <c r="W7" s="22" t="str">
@@ -36066,7 +36066,7 @@
       </c>
       <c r="F8" s="45">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="19" t="str">
         <f t="shared" si="3"/>
@@ -36099,7 +36099,7 @@
       </c>
       <c r="U8" s="45">
         <f>'Best Team All Strength'!U8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="22" t="str">
@@ -36155,7 +36155,7 @@
       </c>
       <c r="R9" s="45">
         <f>'Best Team All Strength'!R9</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19" t="str">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="B10">
         <f>'All strength team card math'!S30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f>'All strength team card math'!AL30</f>
@@ -36220,7 +36220,7 @@
       </c>
       <c r="R10" s="45">
         <f>'Best Team All Strength'!R10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="str">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="B11">
         <f>'All strength team card math'!S9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>'All strength team card math'!AL9</f>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="R13" s="45">
         <f>'Best Team All Strength'!R13</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19" t="str">
@@ -36778,7 +36778,7 @@
       </c>
       <c r="C19">
         <f>'All strength team card math'!AL18</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" si="2"/>
@@ -36892,11 +36892,11 @@
       </c>
       <c r="B21">
         <f>'All strength team card math'!S31</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <f>'All strength team card math'!AL31</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -36908,7 +36908,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19" t="str">
@@ -37061,7 +37061,7 @@
       </c>
       <c r="R24" s="45">
         <f>'Best Team All Strength'!R24</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="19" t="str">
@@ -37507,7 +37507,7 @@
       </c>
       <c r="B36" s="46">
         <f>C2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="47">
         <f t="shared" ref="C36:C67" si="4">B36-D36</f>
@@ -37515,7 +37515,7 @@
       </c>
       <c r="D36" s="46">
         <f>B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="19"/>
     </row>
@@ -37564,11 +37564,11 @@
       </c>
       <c r="B39" s="46">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="47">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="7"/>
@@ -37583,11 +37583,11 @@
       </c>
       <c r="B40" s="46">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="46">
         <f t="shared" si="7"/>
@@ -37685,11 +37685,11 @@
       </c>
       <c r="C44" s="47">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" s="46">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" s="19"/>
       <c r="AD44" s="16"/>
@@ -37709,11 +37709,11 @@
       </c>
       <c r="C45" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" s="46">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="19"/>
       <c r="AD45" s="16"/>
@@ -37897,11 +37897,11 @@
       </c>
       <c r="B53" s="46">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="47">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="7"/>
@@ -37939,15 +37939,15 @@
       </c>
       <c r="B55" s="46">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C55" s="47">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="46">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="19"/>
       <c r="AC55" s="16"/>
@@ -38228,7 +38228,7 @@
       <c r="A68" s="26"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -38312,7 +38312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE61 AE66">
+  <conditionalFormatting sqref="AE66 AE61">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>

--- a/2023-24 Conditional Formatting Cards/23-24 Conditional Formatting Team Card v6.xlsx
+++ b/2023-24 Conditional Formatting Cards/23-24 Conditional Formatting Team Card v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataAnalystProjects\2023-24 Conditional Formatting Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC8AD-70DB-4D88-AF02-F97E84F76166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA97F7-AA1C-4DEB-8C9D-3D1671DC2ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="7"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <f t="shared" si="8"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="V15">
         <f>RANK('Raw All Strength'!J15,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="V18">
         <f>RANK('Raw All Strength'!J18,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="7"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <f t="shared" si="8"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
@@ -3586,11 +3586,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V23">
         <f>RANK('Raw All Strength'!J23,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -3616,23 +3616,23 @@
       </c>
       <c r="B24">
         <f>'Raw All Strength'!K24</f>
-        <v>63.97</v>
+        <v>64.09</v>
       </c>
       <c r="C24">
         <f>'Raw All Strength'!L24</f>
-        <v>60.47</v>
+        <v>60.4</v>
       </c>
       <c r="D24">
         <f>'Raw All Strength'!W24</f>
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E24">
         <f>'Raw All Strength'!X24</f>
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="F24">
         <f>'Raw All Strength'!T24</f>
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="G24">
         <f>'Raw All Strength'!U24</f>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
@@ -3672,27 +3672,27 @@
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V24">
         <f>RANK('Raw All Strength'!J24,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X24">
         <f t="shared" si="9"/>
-        <v>0.13999999999999968</v>
+        <v>0.12999999999999989</v>
       </c>
       <c r="AA24">
         <f>'Raw All Strength'!N24</f>
-        <v>45.94</v>
+        <v>46.11</v>
       </c>
       <c r="AB24">
         <f>'Raw All Strength'!O24</f>
-        <v>44.38</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
@@ -3844,11 +3844,11 @@
       </c>
       <c r="P26">
         <f t="shared" si="7"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q26">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V26">
         <f>RANK('Raw All Strength'!J26,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="7"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <f t="shared" si="8"/>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="7"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28">
         <f t="shared" si="8"/>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="V28">
         <f>RANK('Raw All Strength'!J28,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X28">
         <f t="shared" si="9"/>
@@ -4046,27 +4046,27 @@
       </c>
       <c r="B29">
         <f>'Raw All Strength'!K29</f>
-        <v>62.85</v>
+        <v>62.74</v>
       </c>
       <c r="C29">
         <f>'Raw All Strength'!L29</f>
-        <v>61.17</v>
+        <v>61.33</v>
       </c>
       <c r="D29">
         <f>'Raw All Strength'!W29</f>
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="E29">
         <f>'Raw All Strength'!X29</f>
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="F29">
         <f>'Raw All Strength'!T29</f>
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="G29">
         <f>'Raw All Strength'!U29</f>
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="H29">
         <f>'Raw All Strength'!AQ29</f>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
@@ -4102,11 +4102,11 @@
       </c>
       <c r="P29">
         <f t="shared" si="7"/>
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q29">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V29">
         <f>RANK('Raw All Strength'!J29,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -4114,15 +4114,15 @@
       </c>
       <c r="X29">
         <f t="shared" si="9"/>
-        <v>2.9999999999999805E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="AA29">
         <f>'Raw All Strength'!N29</f>
-        <v>45.79</v>
+        <v>45.65</v>
       </c>
       <c r="AB29">
         <f>'Raw All Strength'!O29</f>
-        <v>43.64</v>
+        <v>43.84</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -4132,19 +4132,19 @@
       </c>
       <c r="B30">
         <f>'Raw All Strength'!K30</f>
-        <v>58.64</v>
+        <v>58.58</v>
       </c>
       <c r="C30">
         <f>'Raw All Strength'!L30</f>
-        <v>55.78</v>
+        <v>55.74</v>
       </c>
       <c r="D30">
         <f>'Raw All Strength'!W30</f>
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="E30">
         <f>'Raw All Strength'!X30</f>
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F30">
         <f>'Raw All Strength'!T30</f>
@@ -4200,15 +4200,15 @@
       </c>
       <c r="X30">
         <f t="shared" si="9"/>
-        <v>0.18999999999999995</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="AA30">
         <f>'Raw All Strength'!N30</f>
-        <v>42.09</v>
+        <v>42.06</v>
       </c>
       <c r="AB30">
         <f>'Raw All Strength'!O30</f>
-        <v>40.65</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -4218,15 +4218,15 @@
       </c>
       <c r="B31">
         <f>'Raw All Strength'!K31</f>
-        <v>60.03</v>
+        <v>59.94</v>
       </c>
       <c r="C31">
         <f>'Raw All Strength'!L31</f>
-        <v>63.97</v>
+        <v>63.84</v>
       </c>
       <c r="D31">
         <f>'Raw All Strength'!W31</f>
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="E31">
         <f>'Raw All Strength'!X31</f>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="G31">
         <f>'Raw All Strength'!U31</f>
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="H31">
         <f>'Raw All Strength'!AQ31</f>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="7"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q31">
         <f t="shared" si="8"/>
@@ -4282,19 +4282,19 @@
       </c>
       <c r="V31">
         <f>RANK('Raw All Strength'!J31,'Raw All Strength'!$J$2:$J$33,)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X31">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AA31">
         <f>'Raw All Strength'!N31</f>
-        <v>42.89</v>
+        <v>42.79</v>
       </c>
       <c r="AB31">
         <f>'Raw All Strength'!O31</f>
-        <v>44.18</v>
+        <v>44.11</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V33">
         <f>RANK('Raw All Strength'!J33,'Raw All Strength'!$J$2:$J$33,)</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="D2">
         <f>'Reg vs No Goalie Math'!K12</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="str">
         <f>'Reg vs No Goalie Math'!M14</f>
@@ -4604,7 +4604,7 @@
       <c r="O2" s="19"/>
       <c r="P2" s="46">
         <f>D2</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="20"/>
       <c r="R2" t="str">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D3">
         <f>'Reg vs No Goalie Math'!K6</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="str">
         <f>'Reg vs No Goalie Math'!M13</f>
@@ -4660,7 +4660,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="46">
         <f t="shared" ref="P3:P33" si="5">D3</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="20"/>
       <c r="R3" t="str">
@@ -4704,11 +4704,11 @@
       </c>
       <c r="M4" s="47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="19"/>
       <c r="P4" s="46">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="C5">
         <f>'Reg vs No Goalie Math'!J10</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f>'Reg vs No Goalie Math'!K10</f>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="H5">
         <f>'Reg vs No Goalie Math'!O7</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="19" t="str">
@@ -4753,11 +4753,11 @@
       </c>
       <c r="L5" s="46">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N5" s="46">
         <f t="shared" si="0"/>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D6">
         <f>'Reg vs No Goalie Math'!K11</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="str">
         <f>'Reg vs No Goalie Math'!M16</f>
@@ -4810,16 +4810,16 @@
       </c>
       <c r="M6" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="46">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" t="str">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="G10">
         <f>'Reg vs No Goalie Math'!N19</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <f>'Reg vs No Goalie Math'!O19</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="str">
@@ -5148,7 +5148,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f>'Reg vs No Goalie Math'!I16</f>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="C13">
         <f>'Reg vs No Goalie Math'!J16</f>
@@ -5173,7 +5173,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" si="3"/>
@@ -5181,11 +5181,11 @@
       </c>
       <c r="M13" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="46">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="46">
@@ -5195,7 +5195,7 @@
       <c r="Q13" s="20"/>
       <c r="R13" t="str">
         <f t="shared" si="1"/>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="H14">
         <f>'Reg vs No Goalie Math'!O15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="str">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="H19">
         <f>'Reg vs No Goalie Math'!O5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="str">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C21">
         <f>'Reg vs No Goalie Math'!J28</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <f>'Reg vs No Goalie Math'!K28</f>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="H21">
         <f>'Reg vs No Goalie Math'!O21</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="str">
@@ -5601,11 +5601,11 @@
       </c>
       <c r="L21" s="46">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="47">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="46">
         <f t="shared" si="0"/>
@@ -5625,7 +5625,7 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>'Reg vs No Goalie Math'!I17</f>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="C22">
         <f>'Reg vs No Goalie Math'!J17</f>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="D22">
         <f>'Reg vs No Goalie Math'!K17</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" t="str">
         <f>'Reg vs No Goalie Math'!M10</f>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="G22">
         <f>'Reg vs No Goalie Math'!N10</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <f>'Reg vs No Goalie Math'!O10</f>
@@ -5650,7 +5650,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="L22" s="46">
         <f t="shared" si="3"/>
@@ -5658,21 +5658,21 @@
       </c>
       <c r="M22" s="47">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N22" s="46">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="46">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="20"/>
       <c r="R22" t="str">
         <f t="shared" si="1"/>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -6264,7 +6264,7 @@
       <c r="L34" s="32"/>
       <c r="M34" s="32">
         <f ca="1">'Best Team All Strength'!B68</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="19"/>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="X2" s="46">
         <f>'HD math'!H30</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="19"/>
       <c r="AA2" t="str">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="str">
         <f>'All strength team card math'!H15</f>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="AQ2">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR2">
         <f>'All strength team card math'!Q15</f>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B3">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f>'HD math'!N15</f>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="C4">
         <f>'HD math'!N13</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="45">
         <f t="shared" ref="F4:F19" si="4">C2</f>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="AB4">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC4">
         <f>'All strength team card math'!Q24</f>
@@ -6736,11 +6736,11 @@
       </c>
       <c r="AG4">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="AL4">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4">
         <f>'All strength team card math'!Q18</f>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C5">
         <f>'HD math'!N30</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="45">
         <f t="shared" si="4"/>
@@ -6893,11 +6893,11 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5">
         <f t="shared" si="3"/>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="F6" s="45">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7040,11 +7040,11 @@
       </c>
       <c r="C7">
         <f>'HD math'!N4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="45">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="AM7">
         <f>'All strength team card math'!Q3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN7">
         <f t="shared" si="2"/>
@@ -7290,11 +7290,11 @@
       </c>
       <c r="C9">
         <f>'HD math'!N6</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="45">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="X11" s="46">
         <f>'HD math'!H28</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="19"/>
     </row>
@@ -7533,11 +7533,11 @@
       </c>
       <c r="B12">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f>'HD math'!N28</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="45">
         <f t="shared" si="4"/>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="X12" s="46">
         <f>'HD math'!H29</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="AA12" t="s">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="AB12">
         <f>SUM(AB2:AB9)/8</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
@@ -7599,27 +7599,27 @@
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="B14">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f>'HD math'!N24</f>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="19" t="str">
         <f t="shared" si="5"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="B15">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <f>'HD math'!N18</f>
@@ -7929,7 +7929,7 @@
       </c>
       <c r="U17" s="46">
         <f>'HD math'!G18</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="22" t="str">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="AB17">
         <f>AB12</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC17">
         <f>RANK(AB17,$AB$17:$AB$20,1)</f>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="B18">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f>'HD math'!N31</f>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -8036,11 +8036,11 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="R19" s="46">
         <f>'HD math'!F31</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S19" s="24"/>
       <c r="T19" s="22" t="str">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="U19" s="46">
         <f>'HD math'!G6</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="22" t="str">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -8186,11 +8186,11 @@
       </c>
       <c r="AE20">
         <f>AR12</f>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
       <c r="AF20">
         <f>RANK(AE20,$AE$17:$AE$20,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
@@ -8216,7 +8216,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="22" t="str">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="U22" s="46">
         <f>'HD math'!G29</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="22" t="str">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="X25" s="46">
         <f>'HD math'!H18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y25" s="19"/>
     </row>
@@ -8766,7 +8766,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -8821,11 +8821,11 @@
       </c>
       <c r="C37" s="47">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D37" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="19"/>
     </row>
@@ -8836,11 +8836,11 @@
       </c>
       <c r="B38" s="46">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="47">
         <f t="shared" si="11"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D38" s="46">
         <f t="shared" si="12"/>
@@ -8855,11 +8855,11 @@
       </c>
       <c r="B39" s="46">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="47">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="12"/>
@@ -8893,11 +8893,11 @@
       </c>
       <c r="B41" s="46">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="47">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="12"/>
@@ -8931,11 +8931,11 @@
       </c>
       <c r="B43" s="46">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="47">
         <f t="shared" si="11"/>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="D43" s="46">
         <f t="shared" si="12"/>
@@ -8988,15 +8988,15 @@
       </c>
       <c r="B46" s="46">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -9030,11 +9030,11 @@
       </c>
       <c r="C48" s="47">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D48" s="46">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48" s="19"/>
     </row>
@@ -9049,11 +9049,11 @@
       </c>
       <c r="C49" s="47">
         <f t="shared" si="11"/>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="D49" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="19"/>
     </row>
@@ -9106,11 +9106,11 @@
       </c>
       <c r="C52" s="47">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52" s="46">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E52" s="19"/>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -9464,8 +9464,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9488,8 +9488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9746,11 +9746,11 @@
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="str">
         <f>'All strength team card math'!H15</f>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="AQ2">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR2">
         <f>'All strength team card math'!Q15</f>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="AB4">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC4">
         <f>'All strength team card math'!Q24</f>
@@ -9955,11 +9955,11 @@
       </c>
       <c r="AG4">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="AL4">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4">
         <f>'All strength team card math'!Q18</f>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B5">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f>'HD math'!M15</f>
@@ -10111,11 +10111,11 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5">
         <f t="shared" si="3"/>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="B6">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f>'HD math'!M24</f>
@@ -10147,7 +10147,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="45">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="19" t="str">
         <f t="shared" si="7"/>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="AM7">
         <f>'All strength team card math'!Q3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN7">
         <f t="shared" si="2"/>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B8">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <f>'HD math'!M18</f>
@@ -10745,11 +10745,11 @@
       </c>
       <c r="B12">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <f>'HD math'!M31</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="45">
         <f t="shared" si="4"/>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="AB12">
         <f>SUM(AB2:AB9)/8</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
@@ -10810,27 +10810,27 @@
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -10904,11 +10904,11 @@
       </c>
       <c r="C14">
         <f>'HD math'!M23</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="19" t="str">
         <f t="shared" si="5"/>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="F16" s="45">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="5"/>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="U17" s="46">
         <f>'HD Best Team List'!U17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V17" s="24"/>
       <c r="W17" s="22" t="str">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="AB17">
         <f>AB12</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC17">
         <f>RANK(AB17,$AB$17:$AB$20,1)</f>
@@ -11233,7 +11233,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -11241,11 +11241,11 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B19">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <f>'HD math'!M28</f>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="R19" s="46">
         <f>'HD Best Team List'!R19</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S19" s="20"/>
       <c r="T19" s="22" t="str">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="U19" s="46">
         <f>'HD Best Team List'!U19</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V19" s="24"/>
       <c r="W19" s="22" t="str">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="C20">
         <f>'HD math'!M6</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -11389,11 +11389,11 @@
       </c>
       <c r="AE20">
         <f>AR12</f>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
       <c r="AF20">
         <f>RANK(AE20,$AE$17:$AE$20,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
@@ -11419,7 +11419,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="22" t="str">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="U22" s="46">
         <f>'HD Best Team List'!U22</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="22" t="str">
@@ -11956,7 +11956,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -12049,11 +12049,11 @@
       </c>
       <c r="C39" s="47">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -12068,11 +12068,11 @@
       </c>
       <c r="C40" s="47">
         <f t="shared" si="11"/>
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="D40" s="46">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="19"/>
     </row>
@@ -12106,11 +12106,11 @@
       </c>
       <c r="C42" s="47">
         <f t="shared" si="11"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D42" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="19"/>
     </row>
@@ -12178,15 +12178,15 @@
       </c>
       <c r="B46" s="46">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="47">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="46">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -12216,11 +12216,11 @@
       </c>
       <c r="B48" s="46">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="47">
         <f t="shared" si="11"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D48" s="46">
         <f t="shared" si="12"/>
@@ -12315,11 +12315,11 @@
       </c>
       <c r="C53" s="47">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="19"/>
     </row>
@@ -12330,11 +12330,11 @@
       </c>
       <c r="B54" s="46">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" s="47">
         <f t="shared" si="11"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D54" s="46">
         <f t="shared" si="12"/>
@@ -12593,7 +12593,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -12666,8 +12666,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12690,8 +12690,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13155,7 +13155,7 @@
       <c r="V18" s="82"/>
       <c r="W18" s="89">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="X18" s="82"/>
       <c r="Y18" s="82"/>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="C24">
         <f>INDEX('All strength team card math'!I:I,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
@@ -13267,15 +13267,15 @@
       </c>
       <c r="H24">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
@@ -13291,11 +13291,11 @@
       </c>
       <c r="N24">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O24">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card'!$A24,'All strength team card math'!$H:$H,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
@@ -13784,7 +13784,7 @@
       </c>
       <c r="O36">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="K37">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L37">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="D39">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="J39">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K39">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -13943,15 +13943,15 @@
       </c>
       <c r="I40">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J40">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K40">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L40">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="M40">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -13980,7 +13980,7 @@
       </c>
       <c r="C42">
         <f>INDEX('All strength team card math'!I:I,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
@@ -14000,15 +14000,15 @@
       </c>
       <c r="H42">
         <f>INDEX('All strength team card math'!N:N,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
@@ -14024,11 +14024,11 @@
       </c>
       <c r="N42">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O42">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card'!$A42,'All strength team card math'!$H:$H,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="K43">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L43">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="M43">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N43">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card'!$A43,'All strength team card math'!$H:$H,0))</f>
@@ -14117,7 +14117,7 @@
       <c r="B53" s="37"/>
       <c r="C53" s="50">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -14144,17 +14144,17 @@
       <c r="F54" s="19"/>
       <c r="G54" s="67">
         <f>N24</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="67">
         <f>O24</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J54" s="19"/>
       <c r="K54" s="67">
         <f>I24</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="67">
@@ -14945,7 +14945,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="66">
         <f>O36</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J90" s="19"/>
       <c r="K90" s="66">
@@ -15017,7 +15017,7 @@
       <c r="L92" s="19"/>
       <c r="M92" s="66">
         <f>K37</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" s="48"/>
       <c r="O92" s="66">
@@ -15211,17 +15211,17 @@
       <c r="J101" s="19"/>
       <c r="K101" s="66">
         <f>I40</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L101" s="19"/>
       <c r="M101" s="66">
         <f>K40</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N101" s="48"/>
       <c r="O101" s="66">
         <f>M40</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P101" s="38"/>
     </row>
@@ -15338,17 +15338,17 @@
       <c r="F108" s="19"/>
       <c r="G108" s="66">
         <f>N42</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="66">
         <f>O42</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J108" s="19"/>
       <c r="K108" s="66">
         <f>I42</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L108" s="19"/>
       <c r="M108" s="66">
@@ -15415,12 +15415,12 @@
       <c r="L110" s="19"/>
       <c r="M110" s="66">
         <f>K43</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N110" s="48"/>
       <c r="O110" s="66">
         <f>M43</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P110" s="38"/>
     </row>
@@ -15756,7 +15756,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y4pgovp1D2nGM1qcG/31ZvSNokIEGSODNdZlrX5ZM6sVR4nWQEOpDHKmXzgKgTsbe8H4jM3zlG/Cv90uNIaIEA==" saltValue="jXsBopOCHNMr+GnAGMxalA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="E9 G9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
+  <conditionalFormatting sqref="G9 E9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15768,7 +15768,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 I54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
+  <conditionalFormatting sqref="G114 I114 K114 M114">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119 I119 K119 M119 M117 K117 I117 G117">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 G54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15780,7 +15804,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65 I65 K65 K63 I63 G63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="I56 K56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65 G65 K65 K63 I63 G63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -15792,7 +15828,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74 I74 K74 K72 I72 G72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="I65 K65 G65 G63 I63 K63 M63:O63 M65:O65">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74 G74 K74 K72 I72 G72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -15804,7 +15852,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83 I83 K83 K81 I81 G81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="I74 K74 G74 G72 I72 K72 M72:O72 M74:O74">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I83 G83 K83 K81 I81 G81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -15816,7 +15876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86 I86 K86 M86">
+  <conditionalFormatting sqref="I86 G86 K86 M86">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -15828,7 +15888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 I92 K92 K90 I90 G90 M90:O90 M92:O92">
+  <conditionalFormatting sqref="I92 G92 K92 K90 I90 G90 M90:O90 M92:O92">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15840,7 +15900,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101 I101 K101 K99 I99 G99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="I92 K92 G92 G90 I90 K90 M90:O90 M92:O92">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101 G101 K101 K99 I99 G99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -15852,7 +15924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110 I110 K110 K108 I108 G108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="I110 G110 K110 K108 I108 G108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -15864,7 +15936,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G128 I128 K128 M128 M126 K126 I126 G126">
+  <conditionalFormatting sqref="I110 K110 G110 G108 I108 K108 M108:O108 M110:O110">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128 G128 K128 M128 M126 K126 I126 G126">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -15876,7 +15960,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G142 I142 K142 M142 M140 K140 I140 G140">
+  <conditionalFormatting sqref="I142 G142 K142 M142 M140 K140 I140 G140">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -15888,7 +15972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83 K83 G83 G81 I81 K81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="K83 I83 G83 G81 I81 K81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15900,7 +15984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I101 K101 G101 G99 I99 K99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="K101 I101 G101 G99 I99 K99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15912,32 +15996,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114 G114 K114 M114">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I119 G119 K119 M119 M117 K117 I117 G117">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56 I56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="K128 M128 I128 G128 G126 I126 K126 M126">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="15.5"/>
@@ -15948,8 +16008,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65 I65 G65 G63 I63 K63 M63:O63 M65:O65">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="K142 M142 I142 G142 G140 I140 K140 M140">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="15.5"/>
@@ -15960,19 +16020,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74 I74 G74 G72 I72 K72 M72:O72 M74:O74">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K86 M86 I86 G86">
+  <conditionalFormatting sqref="M86 K86 I86 G86">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -15984,31 +16032,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92 I92 G92 G90 I90 K90 M90:O90 M92:O92">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K110 I110 G110 G108 I108 K108 M108:O108 M110:O110">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114 M114 I114 G114">
+  <conditionalFormatting sqref="M114 K114 I114 G114">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16020,7 +16044,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119 M119 I119 G119 G117 I117 K117 M117">
+  <conditionalFormatting sqref="M119 K119 I119 G119 G117 I117 K117 M117">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16032,7 +16056,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110 O110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
+  <conditionalFormatting sqref="O110 M110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16040,42 +16064,6 @@
         <cfvo type="num" val="32"/>
         <color rgb="FF0070C0"/>
         <color theme="0" tint="-0.14999847407452621"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128 K128 I128 G128 G126 I126 K126 M126">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142 K142 I142 G142 G140 I140 K140 M140">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8 T8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
@@ -16104,7 +16092,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8 R8 V4:V5 N8 P8 P4:P5 N17:N18">
+  <conditionalFormatting sqref="T8 R8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 T6 R8 V4:V5 N8 P8 P4:P5 N17:N18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -16116,7 +16116,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6 U6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
+  <conditionalFormatting sqref="U6 W6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="E5">
         <f>'Best Team AllStrength No Goalie'!B5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <f>'Best Team AllStrength No Goalie'!C5</f>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="O5" s="19">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="B6">
         <f>'Best Team All Strength'!B6</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f>'Best Team All Strength'!C6</f>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="K6" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="3"/>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="E7">
         <f>'Best Team AllStrength No Goalie'!B7</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <f>'Best Team AllStrength No Goalie'!C7</f>
@@ -16521,7 +16521,7 @@
       </c>
       <c r="O7" s="19">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="C10">
         <f>'Best Team All Strength'!C10</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="str">
         <f>'Best Team AllStrength No Goalie'!A10</f>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="F10">
         <f>'Best Team AllStrength No Goalie'!C10</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="19">
         <f t="shared" si="2"/>
@@ -16667,7 +16667,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="5"/>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="B11">
         <f>'Best Team All Strength'!B11</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <f>'Best Team All Strength'!C11</f>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="K11" s="19">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="3"/>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="B12">
         <f>'Best Team All Strength'!B12</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <f>'Best Team All Strength'!C12</f>
@@ -16759,7 +16759,7 @@
       </c>
       <c r="K12" s="19">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="E15">
         <f>'Best Team AllStrength No Goalie'!B15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <f>'Best Team AllStrength No Goalie'!C15</f>
@@ -16921,13 +16921,13 @@
       </c>
       <c r="O15" s="19">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>'Best Team All Strength'!A16</f>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="B16">
         <f>'Best Team All Strength'!B16</f>
@@ -16951,7 +16951,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
@@ -16977,11 +16977,11 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>'Best Team All Strength'!A17</f>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="B17">
         <f>'Best Team All Strength'!B17</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <f>'Best Team All Strength'!C17</f>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="K17" s="19">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
@@ -17093,11 +17093,11 @@
       </c>
       <c r="E19">
         <f>'Best Team AllStrength No Goalie'!B19</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <f>'Best Team AllStrength No Goalie'!C19</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -17117,11 +17117,11 @@
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="E21">
         <f>'Best Team AllStrength No Goalie'!B21</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <f>'Best Team AllStrength No Goalie'!C21</f>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -17535,7 +17535,7 @@
       </c>
       <c r="C28">
         <f>'Best Team All Strength'!C28</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="str">
         <f>'Best Team AllStrength No Goalie'!A28</f>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="19">
         <f t="shared" si="2"/>
@@ -18146,7 +18146,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q33" si="11">RANK(P3,$P$2:$P$33,1)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3">
         <f>'All Strength Simple Look Math'!V3</f>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="AC3">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE3">
         <f t="shared" si="3"/>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="AF3">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <f t="shared" si="7"/>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <f t="shared" si="11"/>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="AB4">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC4">
         <f t="shared" si="2"/>
@@ -18314,7 +18314,7 @@
       </c>
       <c r="AK4">
         <f t="shared" si="17"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL4">
         <f t="shared" si="18"/>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X6">
         <f>'Raw All Strength'!AL6</f>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <f t="shared" si="9"/>
@@ -18868,11 +18868,11 @@
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <f>'All Strength Simple Look Math'!V9</f>
@@ -18884,7 +18884,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X9">
         <f>'Raw All Strength'!AL9</f>
@@ -18900,7 +18900,7 @@
       </c>
       <c r="AB9">
         <f t="shared" si="16"/>
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC9">
         <f t="shared" si="2"/>
@@ -18919,7 +18919,7 @@
       </c>
       <c r="AK9">
         <f t="shared" si="17"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AL9">
         <f t="shared" si="18"/>
@@ -19082,7 +19082,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q11">
         <f t="shared" si="11"/>
@@ -19122,7 +19122,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U11">
         <f t="shared" si="13"/>
@@ -19138,7 +19138,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="15"/>
-        <v>5.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AB11">
         <f t="shared" si="16"/>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="AK11">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL11">
         <f t="shared" si="18"/>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <f t="shared" si="13"/>
@@ -19566,11 +19566,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
@@ -19602,7 +19602,7 @@
       </c>
       <c r="S15">
         <f>'All Strength Simple Look Math'!V15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <f t="shared" si="12"/>
@@ -19610,7 +19610,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <f>'Raw All Strength'!AL15</f>
@@ -19622,11 +19622,11 @@
       </c>
       <c r="AA15">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="AB15">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC15">
         <f t="shared" si="2"/>
@@ -19731,7 +19731,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16">
         <f>'Raw All Strength'!AL16</f>
@@ -19937,11 +19937,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M18">
         <f t="shared" si="9"/>
@@ -19965,11 +19965,11 @@
       </c>
       <c r="S18">
         <f>'All Strength Simple Look Math'!V18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <f t="shared" si="13"/>
@@ -19985,15 +19985,15 @@
       </c>
       <c r="AA18">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="AB18">
         <f t="shared" si="16"/>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC18">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18">
         <f t="shared" si="3"/>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="AF18">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -20012,7 +20012,7 @@
       </c>
       <c r="AL18">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -20627,23 +20627,23 @@
       </c>
       <c r="B24">
         <f>'All Strength Simple Look Math'!AA24</f>
-        <v>45.94</v>
+        <v>46.11</v>
       </c>
       <c r="C24">
         <f>'All Strength Simple Look Math'!AB24</f>
-        <v>44.38</v>
+        <v>44.26</v>
       </c>
       <c r="D24">
         <f>'All Strength Simple Look Math'!D24</f>
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E24">
         <f>'All Strength Simple Look Math'!E24</f>
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="F24">
         <f>'All Strength Simple Look Math'!F24</f>
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="G24">
         <f>'All Strength Simple Look Math'!G24</f>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <f t="shared" si="7"/>
@@ -20667,7 +20667,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M24">
         <f t="shared" si="9"/>
@@ -20683,7 +20683,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q24">
         <f t="shared" si="11"/>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="S24">
         <f>'All Strength Simple Look Math'!V24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T24">
         <f t="shared" si="12"/>
@@ -20699,15 +20699,15 @@
       </c>
       <c r="U24">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X24">
         <f>'Raw All Strength'!AL24</f>
-        <v>90.29</v>
+        <v>90.26</v>
       </c>
       <c r="Y24">
         <f t="shared" si="14"/>
-        <v>0.13999999999999968</v>
+        <v>0.12999999999999989</v>
       </c>
       <c r="AA24">
         <f t="shared" si="15"/>
@@ -20715,7 +20715,7 @@
       </c>
       <c r="AB24">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC24">
         <f t="shared" si="2"/>
@@ -20734,7 +20734,7 @@
       </c>
       <c r="AK24">
         <f t="shared" si="17"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AL24">
         <f t="shared" si="18"/>
@@ -21171,11 +21171,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S28">
         <f>'All Strength Simple Look Math'!V28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T28">
         <f t="shared" si="12"/>
@@ -21232,27 +21232,27 @@
       </c>
       <c r="B29">
         <f>'All Strength Simple Look Math'!AA29</f>
-        <v>45.79</v>
+        <v>45.65</v>
       </c>
       <c r="C29">
         <f>'All Strength Simple Look Math'!AB29</f>
-        <v>43.64</v>
+        <v>43.84</v>
       </c>
       <c r="D29">
         <f>'All Strength Simple Look Math'!D29</f>
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="E29">
         <f>'All Strength Simple Look Math'!E29</f>
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="F29">
         <f>'All Strength Simple Look Math'!F29</f>
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="G29">
         <f>'All Strength Simple Look Math'!G29</f>
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J29">
         <f t="shared" si="6"/>
@@ -21280,15 +21280,15 @@
       </c>
       <c r="N29">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29">
         <f>RANK(AC29,$AC$2:AC$33,1)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q29">
         <f t="shared" si="11"/>
@@ -21300,23 +21300,23 @@
       </c>
       <c r="T29">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <f t="shared" si="13"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X29">
         <f>'Raw All Strength'!AL29</f>
-        <v>89.63</v>
+        <v>89.69</v>
       </c>
       <c r="Y29">
         <f t="shared" si="14"/>
-        <v>2.9999999999999805E-2</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="AA29">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AB29">
         <f t="shared" si="16"/>
@@ -21324,22 +21324,22 @@
       </c>
       <c r="AC29">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE29">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ29">
         <v>0</v>
       </c>
       <c r="AK29">
         <f t="shared" si="17"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL29">
         <f t="shared" si="18"/>
@@ -21353,19 +21353,19 @@
       </c>
       <c r="B30">
         <f>'All Strength Simple Look Math'!AA30</f>
-        <v>42.09</v>
+        <v>42.06</v>
       </c>
       <c r="C30">
         <f>'All Strength Simple Look Math'!AB30</f>
-        <v>40.65</v>
+        <v>40.58</v>
       </c>
       <c r="D30">
         <f>'All Strength Simple Look Math'!D30</f>
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="E30">
         <f>'All Strength Simple Look Math'!E30</f>
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="F30">
         <f>'All Strength Simple Look Math'!F30</f>
@@ -21385,7 +21385,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
@@ -21409,7 +21409,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q30">
         <f t="shared" si="11"/>
@@ -21429,11 +21429,11 @@
       </c>
       <c r="X30">
         <f>'Raw All Strength'!AL30</f>
-        <v>90.55</v>
+        <v>90.52</v>
       </c>
       <c r="Y30">
         <f t="shared" si="14"/>
-        <v>0.18999999999999995</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="AA30">
         <f t="shared" si="15"/>
@@ -21441,7 +21441,7 @@
       </c>
       <c r="AB30">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AC30">
         <f t="shared" si="2"/>
@@ -21460,11 +21460,11 @@
       </c>
       <c r="AK30">
         <f t="shared" si="17"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL30">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
@@ -21474,15 +21474,15 @@
       </c>
       <c r="B31">
         <f>'All Strength Simple Look Math'!AA31</f>
-        <v>42.89</v>
+        <v>42.79</v>
       </c>
       <c r="C31">
         <f>'All Strength Simple Look Math'!AB31</f>
-        <v>44.18</v>
+        <v>44.11</v>
       </c>
       <c r="D31">
         <f>'All Strength Simple Look Math'!D31</f>
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="E31">
         <f>'All Strength Simple Look Math'!E31</f>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="G31">
         <f>'All Strength Simple Look Math'!G31</f>
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -21526,19 +21526,19 @@
       </c>
       <c r="O31">
         <f>RANK(AC31,$AC$2:AC$33,1)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q31">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S31">
         <f>'All Strength Simple Look Math'!V31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T31">
         <f t="shared" si="12"/>
@@ -21550,11 +21550,11 @@
       </c>
       <c r="X31">
         <f>'Raw All Strength'!AL31</f>
-        <v>90.41</v>
+        <v>90.36</v>
       </c>
       <c r="Y31">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AA31">
         <f t="shared" si="15"/>
@@ -21566,7 +21566,7 @@
       </c>
       <c r="AC31">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31">
         <f t="shared" si="3"/>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="AF31">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -21647,11 +21647,11 @@
       </c>
       <c r="O32">
         <f>RANK(AC32,$AC$2:AC$33,1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <f t="shared" si="11"/>
@@ -21687,15 +21687,15 @@
       </c>
       <c r="AC32">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE32">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF32">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -21833,7 +21833,7 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="AK35">
         <f>SUM(AK2:AK33)</f>
-        <v>3154</v>
+        <v>3149</v>
       </c>
     </row>
   </sheetData>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -22120,19 +22120,19 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -22454,7 +22454,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -22664,19 +22664,19 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
@@ -22910,7 +22910,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
@@ -22924,15 +22924,15 @@
       </c>
       <c r="B24">
         <f>'Raw All Strength'!AC24</f>
-        <v>13.12</v>
+        <v>13.15</v>
       </c>
       <c r="C24">
         <f>'Raw All Strength'!AD24</f>
-        <v>11.21</v>
+        <v>11.19</v>
       </c>
       <c r="D24">
         <f>'Raw All Strength'!AJ24</f>
-        <v>77.069999999999993</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -23128,7 +23128,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -23136,7 +23136,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
@@ -23144,7 +23144,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -23154,15 +23154,15 @@
       </c>
       <c r="B29">
         <f>'Raw All Strength'!AC29</f>
-        <v>13.91</v>
+        <v>13.85</v>
       </c>
       <c r="C29">
         <f>'Raw All Strength'!AD29</f>
-        <v>11.9</v>
+        <v>11.95</v>
       </c>
       <c r="D29">
         <f>'Raw All Strength'!AJ29</f>
-        <v>80.84</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -23170,15 +23170,15 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
@@ -23200,15 +23200,15 @@
       </c>
       <c r="B30">
         <f>'Raw All Strength'!AC30</f>
-        <v>12.87</v>
+        <v>12.81</v>
       </c>
       <c r="C30">
         <f>'Raw All Strength'!AD30</f>
-        <v>11.46</v>
+        <v>11.43</v>
       </c>
       <c r="D30">
         <f>'Raw All Strength'!AJ30</f>
-        <v>81.34</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -23220,7 +23220,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -23228,7 +23228,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
@@ -23236,7 +23236,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -23246,19 +23246,19 @@
       </c>
       <c r="B31">
         <f>'Raw All Strength'!AC31</f>
-        <v>11.56</v>
+        <v>11.53</v>
       </c>
       <c r="C31">
         <f>'Raw All Strength'!AD31</f>
-        <v>11.31</v>
+        <v>11.27</v>
       </c>
       <c r="D31">
         <f>'Raw All Strength'!AJ31</f>
-        <v>80.41</v>
+        <v>80.22</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -23270,15 +23270,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="B3">
         <f>'All strength team card math'!Q3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <f>'All strength team card math'!S3</f>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="I4">
         <f>'All strength team card math'!J4</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <f>'All strength team card math'!L4</f>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="H6">
         <f>'All strength team card math'!U6</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <f>'All strength team card math'!J6</f>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="B9">
         <f>'All strength team card math'!Q9</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f>'All strength team card math'!S9</f>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H9">
         <f>'All strength team card math'!U9</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <f>'All strength team card math'!J9</f>
@@ -23828,7 +23828,7 @@
       </c>
       <c r="J9">
         <f>'All strength team card math'!L9</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <f>'All strength team card math'!N9</f>
@@ -23904,11 +23904,11 @@
       </c>
       <c r="D11">
         <f>'All strength team card math'!T11</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f>'All strength team card math'!I11</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <f>'All strength team card math'!K11</f>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="D14">
         <f>'All strength team card math'!T14</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f>'All strength team card math'!I14</f>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="C15">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <f>'All strength team card math'!T15</f>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="E15">
         <f>'All strength team card math'!I15</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <f>'All strength team card math'!K15</f>
@@ -24120,11 +24120,11 @@
       </c>
       <c r="H15">
         <f>'All strength team card math'!U15</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <f>'All strength team card math'!J15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <f>'All strength team card math'!L15</f>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="H16">
         <f>'All strength team card math'!U16</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <f>'All strength team card math'!J16</f>
@@ -24250,11 +24250,11 @@
       </c>
       <c r="C18">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <f>'All strength team card math'!T18</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <f>'All strength team card math'!I18</f>
@@ -24262,7 +24262,7 @@
       </c>
       <c r="F18">
         <f>'All strength team card math'!K18</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <f>'All strength team card math'!M18</f>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="J18">
         <f>'All strength team card math'!L18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <f>'All strength team card math'!N18</f>
@@ -24550,7 +24550,7 @@
       </c>
       <c r="C24">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f>'All strength team card math'!T24</f>
@@ -24570,15 +24570,15 @@
       </c>
       <c r="H24">
         <f>'All strength team card math'!U24</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <f>'All strength team card math'!J24</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <f>'All strength team card math'!L24</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <f>'All strength team card math'!N24</f>
@@ -24746,11 +24746,11 @@
       </c>
       <c r="B28">
         <f>'All strength team card math'!Q28</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <f>'All strength team card math'!T28</f>
@@ -24804,11 +24804,11 @@
       </c>
       <c r="D29">
         <f>'All strength team card math'!T29</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <f>'All strength team card math'!I29</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <f>'All strength team card math'!K29</f>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="H29">
         <f>'All strength team card math'!U29</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <f>'All strength team card math'!J29</f>
@@ -24832,11 +24832,11 @@
       </c>
       <c r="K29">
         <f>'All strength team card math'!N29</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29">
         <f>'All strength team card math'!O29</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -24874,11 +24874,11 @@
       </c>
       <c r="I30">
         <f>'All strength team card math'!J30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <f>'All strength team card math'!L30</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <f>'All strength team card math'!N30</f>
@@ -24896,11 +24896,11 @@
       </c>
       <c r="B31">
         <f>'All strength team card math'!Q31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <f>'All strength team card math'!T31</f>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="L31">
         <f>'All strength team card math'!O31</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -24986,7 +24986,7 @@
       </c>
       <c r="L32">
         <f>'All strength team card math'!O32</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -27800,10 +27800,10 @@
         <v>43</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>60.627499999999998</v>
+        <v>60.6387</v>
       </c>
       <c r="E24">
         <v>36</v>
@@ -27812,103 +27812,103 @@
         <v>30</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24">
         <v>34</v>
       </c>
       <c r="I24">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24">
-        <v>0.53900000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="K24">
-        <v>63.97</v>
+        <v>64.09</v>
       </c>
       <c r="L24">
-        <v>60.47</v>
+        <v>60.4</v>
       </c>
       <c r="M24">
-        <v>51.4</v>
+        <v>51.48</v>
       </c>
       <c r="N24">
-        <v>45.94</v>
+        <v>46.11</v>
       </c>
       <c r="O24">
-        <v>44.38</v>
+        <v>44.26</v>
       </c>
       <c r="P24">
-        <v>50.86</v>
+        <v>51.02</v>
       </c>
       <c r="Q24">
-        <v>32.21</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="R24">
-        <v>29.79</v>
+        <v>29.7</v>
       </c>
       <c r="S24">
-        <v>51.95</v>
+        <v>52.02</v>
       </c>
       <c r="T24">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U24">
         <v>2.89</v>
       </c>
       <c r="V24">
-        <v>50.87</v>
+        <v>50.76</v>
       </c>
       <c r="W24">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="X24">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="Y24">
-        <v>53</v>
+        <v>53.18</v>
       </c>
       <c r="Z24">
-        <v>30.82</v>
+        <v>30.88</v>
       </c>
       <c r="AA24">
-        <v>28.88</v>
+        <v>28.8</v>
       </c>
       <c r="AB24">
-        <v>51.63</v>
+        <v>51.74</v>
       </c>
       <c r="AC24">
-        <v>13.12</v>
+        <v>13.15</v>
       </c>
       <c r="AD24">
-        <v>11.21</v>
+        <v>11.19</v>
       </c>
       <c r="AE24">
-        <v>53.94</v>
+        <v>54.04</v>
       </c>
       <c r="AF24">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AG24">
         <v>1.71</v>
       </c>
       <c r="AH24">
-        <v>45.49</v>
+        <v>45.34</v>
       </c>
       <c r="AI24">
-        <v>16.04</v>
+        <v>15.95</v>
       </c>
       <c r="AJ24">
-        <v>77.069999999999993</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="AK24">
-        <v>9.3000000000000007</v>
+        <v>9.26</v>
       </c>
       <c r="AL24">
-        <v>90.29</v>
+        <v>90.26</v>
       </c>
       <c r="AM24">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
@@ -28395,13 +28395,13 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>60.97</v>
+        <v>60.976799999999997</v>
       </c>
       <c r="E29">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>23</v>
@@ -28410,100 +28410,100 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I29">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J29">
-        <v>0.63800000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="K29">
-        <v>62.85</v>
+        <v>62.74</v>
       </c>
       <c r="L29">
-        <v>61.17</v>
+        <v>61.33</v>
       </c>
       <c r="M29">
-        <v>50.68</v>
+        <v>50.57</v>
       </c>
       <c r="N29">
-        <v>45.79</v>
+        <v>45.65</v>
       </c>
       <c r="O29">
-        <v>43.64</v>
+        <v>43.84</v>
       </c>
       <c r="P29">
-        <v>51.2</v>
+        <v>51.01</v>
       </c>
       <c r="Q29">
-        <v>32.090000000000003</v>
+        <v>31.96</v>
       </c>
       <c r="R29">
-        <v>29.35</v>
+        <v>29.38</v>
       </c>
       <c r="S29">
-        <v>52.22</v>
+        <v>52.1</v>
       </c>
       <c r="T29">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="U29">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="V29">
-        <v>53.92</v>
+        <v>53.98</v>
       </c>
       <c r="W29">
-        <v>3.36</v>
+        <v>3.34</v>
       </c>
       <c r="X29">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="Y29">
-        <v>52.27</v>
+        <v>52.01</v>
       </c>
       <c r="Z29">
-        <v>31.4</v>
+        <v>31.28</v>
       </c>
       <c r="AA29">
-        <v>29.12</v>
+        <v>29.2</v>
       </c>
       <c r="AB29">
-        <v>51.88</v>
+        <v>51.72</v>
       </c>
       <c r="AC29">
-        <v>13.91</v>
+        <v>13.85</v>
       </c>
       <c r="AD29">
-        <v>11.9</v>
+        <v>11.95</v>
       </c>
       <c r="AE29">
-        <v>53.89</v>
+        <v>53.69</v>
       </c>
       <c r="AF29">
         <v>1.84</v>
       </c>
       <c r="AG29">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AH29">
-        <v>54.62</v>
+        <v>54.75</v>
       </c>
       <c r="AI29">
-        <v>19.920000000000002</v>
+        <v>20.03</v>
       </c>
       <c r="AJ29">
-        <v>80.84</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="AK29">
-        <v>11.1</v>
+        <v>11.12</v>
       </c>
       <c r="AL29">
-        <v>89.63</v>
+        <v>89.69</v>
       </c>
       <c r="AM29">
-        <v>1.0069999999999999</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
@@ -28514,13 +28514,13 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>60.531199999999998</v>
+        <v>60.5244</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>22</v>
@@ -28529,40 +28529,40 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J30">
-        <v>0.66200000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="K30">
-        <v>58.64</v>
+        <v>58.58</v>
       </c>
       <c r="L30">
-        <v>55.78</v>
+        <v>55.74</v>
       </c>
       <c r="M30">
-        <v>51.25</v>
+        <v>51.24</v>
       </c>
       <c r="N30">
-        <v>42.09</v>
+        <v>42.06</v>
       </c>
       <c r="O30">
-        <v>40.65</v>
+        <v>40.58</v>
       </c>
       <c r="P30">
-        <v>50.87</v>
+        <v>50.89</v>
       </c>
       <c r="Q30">
-        <v>28.22</v>
+        <v>28.24</v>
       </c>
       <c r="R30">
-        <v>28.35</v>
+        <v>28.28</v>
       </c>
       <c r="S30">
-        <v>49.89</v>
+        <v>49.97</v>
       </c>
       <c r="T30">
         <v>3.39</v>
@@ -28571,58 +28571,58 @@
         <v>2.68</v>
       </c>
       <c r="V30">
-        <v>55.84</v>
+        <v>55.86</v>
       </c>
       <c r="W30">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="X30">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="Y30">
-        <v>52.44</v>
+        <v>52.57</v>
       </c>
       <c r="Z30">
-        <v>28.87</v>
+        <v>28.75</v>
       </c>
       <c r="AA30">
-        <v>26.15</v>
+        <v>26.09</v>
       </c>
       <c r="AB30">
-        <v>52.48</v>
+        <v>52.42</v>
       </c>
       <c r="AC30">
-        <v>12.87</v>
+        <v>12.81</v>
       </c>
       <c r="AD30">
-        <v>11.46</v>
+        <v>11.43</v>
       </c>
       <c r="AE30">
-        <v>52.91</v>
+        <v>52.86</v>
       </c>
       <c r="AF30">
         <v>1.8</v>
       </c>
       <c r="AG30">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AH30">
-        <v>55.12</v>
+        <v>55.47</v>
       </c>
       <c r="AI30">
-        <v>21.57</v>
+        <v>21.71</v>
       </c>
       <c r="AJ30">
-        <v>81.34</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="AK30">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="AL30">
-        <v>90.55</v>
+        <v>90.52</v>
       </c>
       <c r="AM30">
-        <v>1.026</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
@@ -28633,16 +28633,16 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>60.708799999999997</v>
+        <v>60.699599999999997</v>
       </c>
       <c r="E31">
         <v>42</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31">
         <v>8</v>
@@ -28654,91 +28654,91 @@
         <v>92</v>
       </c>
       <c r="J31">
-        <v>0.60499999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="K31">
-        <v>60.03</v>
+        <v>59.94</v>
       </c>
       <c r="L31">
-        <v>63.97</v>
+        <v>63.84</v>
       </c>
       <c r="M31">
-        <v>48.41</v>
+        <v>48.42</v>
       </c>
       <c r="N31">
-        <v>42.89</v>
+        <v>42.79</v>
       </c>
       <c r="O31">
-        <v>44.18</v>
+        <v>44.11</v>
       </c>
       <c r="P31">
-        <v>49.26</v>
+        <v>49.24</v>
       </c>
       <c r="Q31">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="R31">
-        <v>30.38</v>
+        <v>30.37</v>
       </c>
       <c r="S31">
-        <v>50.42</v>
+        <v>50.35</v>
       </c>
       <c r="T31">
         <v>3.17</v>
       </c>
       <c r="U31">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="V31">
-        <v>52.14</v>
+        <v>52</v>
       </c>
       <c r="W31">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="X31">
         <v>2.91</v>
       </c>
       <c r="Y31">
-        <v>50.57</v>
+        <v>50.41</v>
       </c>
       <c r="Z31">
-        <v>28.8</v>
+        <v>28.72</v>
       </c>
       <c r="AA31">
-        <v>29.56</v>
+        <v>29.42</v>
       </c>
       <c r="AB31">
-        <v>49.35</v>
+        <v>49.39</v>
       </c>
       <c r="AC31">
-        <v>11.56</v>
+        <v>11.53</v>
       </c>
       <c r="AD31">
-        <v>11.31</v>
+        <v>11.27</v>
       </c>
       <c r="AE31">
-        <v>50.54</v>
+        <v>50.56</v>
       </c>
       <c r="AF31">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AG31">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AH31">
-        <v>53.3</v>
+        <v>52.84</v>
       </c>
       <c r="AI31">
-        <v>19.579999999999998</v>
+        <v>19.48</v>
       </c>
       <c r="AJ31">
-        <v>80.41</v>
+        <v>80.22</v>
       </c>
       <c r="AK31">
-        <v>10.27</v>
+        <v>10.3</v>
       </c>
       <c r="AL31">
-        <v>90.41</v>
+        <v>90.36</v>
       </c>
       <c r="AM31">
         <v>1.0069999999999999</v>
@@ -29001,8 +29001,8 @@
   </sheetPr>
   <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X33" sqref="W2:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29207,11 +29207,11 @@
       </c>
       <c r="AM2">
         <f>'All strength team card math'!Q9</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2:AN9" si="2">RANK(AM2,$AM$2:$AM$9,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="str">
         <f>'All strength team card math'!H15</f>
@@ -29219,7 +29219,7 @@
       </c>
       <c r="AQ2">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR2">
         <f>'All strength team card math'!Q15</f>
@@ -29277,7 +29277,7 @@
       </c>
       <c r="AB3">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC3">
         <f>'All strength team card math'!Q24</f>
@@ -29418,11 +29418,11 @@
       </c>
       <c r="AG4">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4">
         <f>'All strength team card math'!Q28</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
@@ -29434,7 +29434,7 @@
       </c>
       <c r="AL4">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4">
         <f>'All strength team card math'!Q18</f>
@@ -29495,11 +29495,11 @@
       <c r="L5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19" t="str">
-        <f>'All strength team card math'!H29</f>
-        <v>Toronto Maple Leafs</v>
+        <f>'All strength team card math'!H14</f>
+        <v>Florida Panthers</v>
       </c>
       <c r="R5" s="45">
-        <f>'All strength team card math'!T29</f>
+        <f>'All strength team card math'!T14</f>
         <v>4</v>
       </c>
       <c r="S5" s="19"/>
@@ -29575,11 +29575,11 @@
       </c>
       <c r="AQ5">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR5">
         <f>'All strength team card math'!Q31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS5">
         <f t="shared" si="3"/>
@@ -29593,7 +29593,7 @@
       </c>
       <c r="B6">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f>'All strength team card math'!Q15</f>
@@ -29620,12 +29620,12 @@
       <c r="L6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19" t="str">
-        <f>'All strength team card math'!H14</f>
-        <v>Florida Panthers</v>
+        <f>'All strength team card math'!H11</f>
+        <v>Dallas Stars</v>
       </c>
       <c r="R6" s="45">
-        <f>'All strength team card math'!T14</f>
-        <v>5</v>
+        <f>'All strength team card math'!T11</f>
+        <v>4</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19" t="str">
@@ -29745,20 +29745,20 @@
       <c r="L7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19" t="str">
-        <f>'All strength team card math'!H11</f>
-        <v>Dallas Stars</v>
+        <f>'All strength team card math'!H29</f>
+        <v>Toronto Maple Leafs</v>
       </c>
       <c r="R7" s="45">
-        <f>'All strength team card math'!T11</f>
+        <f>'All strength team card math'!T29</f>
         <v>6</v>
       </c>
       <c r="S7" s="19"/>
       <c r="T7" s="19" t="str">
-        <f>'All strength team card math'!H15</f>
-        <v>Los Angeles Kings</v>
+        <f>'All strength team card math'!H30</f>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="U7" s="45">
-        <f>'All strength team card math'!U15</f>
+        <f>'All strength team card math'!U30</f>
         <v>6</v>
       </c>
       <c r="V7" s="19"/>
@@ -29813,7 +29813,7 @@
       </c>
       <c r="AM7">
         <f>'All strength team card math'!Q3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN7">
         <f t="shared" si="2"/>
@@ -29879,12 +29879,12 @@
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="19" t="str">
-        <f>'All strength team card math'!H30</f>
-        <v>Vancouver Canucks</v>
+        <f>'All strength team card math'!H15</f>
+        <v>Los Angeles Kings</v>
       </c>
       <c r="U8" s="45">
-        <f>'All strength team card math'!U30</f>
-        <v>6</v>
+        <f>'All strength team card math'!U15</f>
+        <v>7</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="19" t="str">
@@ -30009,7 +30009,7 @@
       </c>
       <c r="U9" s="45">
         <f>'All strength team card math'!U16</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" s="19"/>
       <c r="W9" s="19" t="str">
@@ -30097,7 +30097,7 @@
       </c>
       <c r="C10">
         <f>'All strength team card math'!Q9</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="45">
         <f t="shared" si="4"/>
@@ -30125,7 +30125,7 @@
       </c>
       <c r="R10" s="45">
         <f>'All strength team card math'!T18</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="str">
@@ -30154,7 +30154,7 @@
       </c>
       <c r="B11">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <f>'All strength team card math'!Q18</f>
@@ -30215,7 +30215,7 @@
       </c>
       <c r="B12">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <f>'All strength team card math'!Q24</f>
@@ -30223,7 +30223,7 @@
       </c>
       <c r="F12" s="45">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="19" t="str">
         <f t="shared" si="5"/>
@@ -30273,7 +30273,7 @@
       </c>
       <c r="AB12">
         <f>SUM(AB2:AB9)/8</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC12">
         <f>SUM(AC2:AC9)/8</f>
@@ -30281,27 +30281,27 @@
       </c>
       <c r="AG12">
         <f t="shared" ref="AG12:AR12" si="8">SUM(AG2:AG9)/8</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AH12">
         <f t="shared" si="8"/>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AL12">
         <f t="shared" si="8"/>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AM12">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="8"/>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AR12">
         <f t="shared" si="8"/>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
@@ -30390,7 +30390,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="45">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="19" t="str">
         <f t="shared" si="7"/>
@@ -30417,11 +30417,11 @@
       </c>
       <c r="V14" s="19"/>
       <c r="W14" s="19" t="str">
-        <f>'All strength team card math'!H31</f>
-        <v>Vegas Golden Knights</v>
+        <f>'All strength team card math'!H17</f>
+        <v>Montreal Canadiens</v>
       </c>
       <c r="X14" s="45">
-        <f>'All strength team card math'!O31</f>
+        <f>'All strength team card math'!O17</f>
         <v>13</v>
       </c>
       <c r="Y14" s="19"/>
@@ -30478,26 +30478,26 @@
       </c>
       <c r="V15" s="19"/>
       <c r="W15" s="19" t="str">
-        <f>'All strength team card math'!H17</f>
-        <v>Montreal Canadiens</v>
+        <f>'All strength team card math'!H20</f>
+        <v>New York Islanders</v>
       </c>
       <c r="X15" s="45">
-        <f>'All strength team card math'!O17</f>
+        <f>'All strength team card math'!O20</f>
         <v>13</v>
       </c>
       <c r="Y15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>'All strength team card math'!H31</f>
-        <v>Vegas Golden Knights</v>
+        <f>'All strength team card math'!H28</f>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="B16">
-        <f>'All strength team card math'!S31</f>
+        <f>'All strength team card math'!S28</f>
         <v>11</v>
       </c>
       <c r="C16">
-        <f>'All strength team card math'!Q31</f>
+        <f>'All strength team card math'!Q28</f>
         <v>15</v>
       </c>
       <c r="F16" s="45">
@@ -30539,12 +30539,12 @@
       </c>
       <c r="V16" s="19"/>
       <c r="W16" s="19" t="str">
-        <f>'All strength team card math'!H20</f>
-        <v>New York Islanders</v>
+        <f>'All strength team card math'!H31</f>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="X16" s="45">
-        <f>'All strength team card math'!O20</f>
-        <v>13</v>
+        <f>'All strength team card math'!O31</f>
+        <v>15</v>
       </c>
       <c r="Y16" s="19"/>
       <c r="AA16" s="18" t="s">
@@ -30565,15 +30565,15 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>'All strength team card math'!H28</f>
-        <v>Tampa Bay Lightning</v>
+        <f>'All strength team card math'!H31</f>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="B17">
-        <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <f>'All strength team card math'!S31</f>
+        <v>14</v>
       </c>
       <c r="C17">
-        <f>'All strength team card math'!Q28</f>
+        <f>'All strength team card math'!Q31</f>
         <v>16</v>
       </c>
       <c r="F17" s="45">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="U17" s="45">
         <f>'All strength team card math'!U9</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19" t="str">
@@ -30629,7 +30629,7 @@
       </c>
       <c r="AB17">
         <f>AB12</f>
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="AC17">
         <f>RANK(AB17,$AB$17:$AB$20,1)</f>
@@ -30663,7 +30663,7 @@
       </c>
       <c r="G18" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -30710,7 +30710,7 @@
       </c>
       <c r="AB18">
         <f>AG12</f>
-        <v>15.5</v>
+        <v>15.375</v>
       </c>
       <c r="AC18">
         <f>RANK(AB18,$AB$17:$AB$20,1)</f>
@@ -30718,11 +30718,11 @@
       </c>
       <c r="AE18">
         <f>AH12</f>
-        <v>16.75</v>
+        <v>16.625</v>
       </c>
       <c r="AF18">
         <f>RANK(AE18,$AE$17:$AE$20,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="G19" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="AB19">
         <f>AL12</f>
-        <v>15.25</v>
+        <v>15.125</v>
       </c>
       <c r="AC19">
         <f>RANK(AB19,$AB$17:$AB$20,1)</f>
@@ -30799,7 +30799,7 @@
       </c>
       <c r="AE19">
         <f>AM12</f>
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="AF19">
         <f>RANK(AE19,$AE$17:$AE$20,1)</f>
@@ -30837,21 +30837,21 @@
       </c>
       <c r="S20" s="19"/>
       <c r="T20" s="19" t="str">
+        <f>'All strength team card math'!H24</f>
+        <v>Pittsburgh Penguins</v>
+      </c>
+      <c r="U20" s="45">
+        <f>'All strength team card math'!U24</f>
+        <v>18</v>
+      </c>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19" t="str">
         <f>'All strength team card math'!H29</f>
         <v>Toronto Maple Leafs</v>
       </c>
-      <c r="U20" s="45">
-        <f>'All strength team card math'!U29</f>
-        <v>19</v>
-      </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19" t="str">
-        <f>'All strength team card math'!H32</f>
-        <v>Washington Capitals</v>
-      </c>
       <c r="X20" s="45">
-        <f>'All strength team card math'!O32</f>
-        <v>19</v>
+        <f>'All strength team card math'!O29</f>
+        <v>18</v>
       </c>
       <c r="Y20" s="19"/>
       <c r="AA20" t="str">
@@ -30860,7 +30860,7 @@
       </c>
       <c r="AB20">
         <f>AQ12</f>
-        <v>18.125</v>
+        <v>18.375</v>
       </c>
       <c r="AC20">
         <f>RANK(AB20,$AB$17:$AB$20,1)</f>
@@ -30868,11 +30868,11 @@
       </c>
       <c r="AE20">
         <f>AR12</f>
-        <v>16.625</v>
+        <v>16.75</v>
       </c>
       <c r="AF20">
         <f>RANK(AE20,$AE$17:$AE$20,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
@@ -30898,7 +30898,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19" t="str">
@@ -30911,20 +30911,20 @@
       </c>
       <c r="S21" s="19"/>
       <c r="T21" s="19" t="str">
-        <f>'All strength team card math'!H6</f>
-        <v>Calgary Flames</v>
+        <f>'All strength team card math'!H29</f>
+        <v>Toronto Maple Leafs</v>
       </c>
       <c r="U21" s="45">
-        <f>'All strength team card math'!U6</f>
+        <f>'All strength team card math'!U29</f>
         <v>20</v>
       </c>
       <c r="V21" s="19"/>
       <c r="W21" s="19" t="str">
-        <f>'All strength team card math'!H29</f>
-        <v>Toronto Maple Leafs</v>
+        <f>'All strength team card math'!H32</f>
+        <v>Washington Capitals</v>
       </c>
       <c r="X21" s="45">
-        <f>'All strength team card math'!O29</f>
+        <f>'All strength team card math'!O32</f>
         <v>20</v>
       </c>
       <c r="Y21" s="19"/>
@@ -30954,12 +30954,12 @@
       </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19" t="str">
-        <f>'All strength team card math'!H24</f>
-        <v>Pittsburgh Penguins</v>
+        <f>'All strength team card math'!H6</f>
+        <v>Calgary Flames</v>
       </c>
       <c r="U22" s="45">
-        <f>'All strength team card math'!U24</f>
-        <v>20</v>
+        <f>'All strength team card math'!U6</f>
+        <v>21</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="19" t="str">
@@ -31193,7 +31193,7 @@
       </c>
       <c r="C28">
         <f>'All strength team card math'!Q3</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19" t="str">
@@ -31441,7 +31441,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="28">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
@@ -31553,11 +31553,11 @@
       </c>
       <c r="C40" s="47">
         <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D40" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="19"/>
     </row>
@@ -31625,11 +31625,11 @@
       </c>
       <c r="B44" s="46">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="47">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="46">
         <f t="shared" si="12"/>
@@ -31648,11 +31648,11 @@
       </c>
       <c r="C45" s="47">
         <f t="shared" si="11"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D45" s="46">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="19"/>
     </row>
@@ -31667,11 +31667,11 @@
       </c>
       <c r="C46" s="47">
         <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D46" s="46">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" s="19"/>
     </row>
@@ -31735,7 +31735,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Vegas Golden Knights</v>
+        <v>Tampa Bay Lightning</v>
       </c>
       <c r="B50" s="46">
         <f t="shared" si="10"/>
@@ -31754,7 +31754,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="str">
         <f t="shared" si="9"/>
-        <v>Tampa Bay Lightning</v>
+        <v>Vegas Golden Knights</v>
       </c>
       <c r="B51" s="46">
         <f t="shared" si="10"/>
@@ -31762,11 +31762,11 @@
       </c>
       <c r="C51" s="47">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="46">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E51" s="19"/>
     </row>
@@ -31967,11 +31967,11 @@
       </c>
       <c r="B62" s="46">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" s="47">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D62" s="46">
         <f t="shared" si="12"/>
@@ -32078,7 +32078,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -32087,8 +32087,8 @@
       <c r="E68" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
-    <sortCondition ref="C33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:X33">
+    <sortCondition ref="X33"/>
   </sortState>
   <conditionalFormatting sqref="F4:F19 J4:J19">
     <cfRule type="colorScale" priority="2">
@@ -32126,8 +32126,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12 AG12 AL12 AQ12">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AC12 AH12 AM12 AR12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32150,8 +32150,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12 AC12 AM12 AR12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="AG12 AB12 AL12 AQ12">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32615,7 +32615,7 @@
       <c r="V18" s="108"/>
       <c r="W18" s="109">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="X18" s="108"/>
       <c r="Y18" s="108"/>
@@ -33045,7 +33045,7 @@
       </c>
       <c r="K31">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31">
         <f>INDEX('All strength team card math'!R:R,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
@@ -33053,7 +33053,7 @@
       </c>
       <c r="M31">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N31">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A31,'All strength team card math'!$H:$H,0))</f>
@@ -33200,7 +33200,7 @@
       </c>
       <c r="D36">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33208,7 +33208,7 @@
       </c>
       <c r="F36">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33224,7 +33224,7 @@
       </c>
       <c r="J36">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K36">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A36,'All strength team card math'!$H:$H,0))</f>
@@ -33261,7 +33261,7 @@
       </c>
       <c r="D37">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33269,7 +33269,7 @@
       </c>
       <c r="F37">
         <f>INDEX('All strength team card math'!L:L,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37">
         <f>INDEX('All strength team card math'!M:M,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33285,7 +33285,7 @@
       </c>
       <c r="J37">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K37">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="M37">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
@@ -33305,7 +33305,7 @@
       </c>
       <c r="O37">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A37,'All strength team card math'!$H:$H,0))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -33318,11 +33318,11 @@
       </c>
       <c r="C39">
         <f>INDEX('All strength team card math'!I:I,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39">
         <f>INDEX('All strength team card math'!J:J,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <f>INDEX('All strength team card math'!K:K,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="M39">
         <f>INDEX('All strength team card math'!S:S,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N39">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="O39">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A39,'All strength team card math'!$H:$H,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -33423,7 +33423,7 @@
       </c>
       <c r="N40">
         <f>INDEX('All strength team card math'!T:T,MATCH('Team Card Dark'!$A40,'All strength team card math'!$H:$H,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40">
         <f>INDEX('All strength team card math'!U:U,MATCH('Team Card Dark'!$A40,'All strength team card math'!$H:$H,0))</f>
@@ -33525,11 +33525,11 @@
       </c>
       <c r="I43">
         <f>INDEX('All strength team card math'!O:O,MATCH('Team Card Dark'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J43">
         <f>INDEX('All strength team card math'!P:P,MATCH('Team Card Dark'!$A43,'All strength team card math'!$H:$H,0))</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K43">
         <f>INDEX('All strength team card math'!Q:Q,MATCH('Team Card Dark'!$A43,'All strength team card math'!$H:$H,0))</f>
@@ -33577,7 +33577,7 @@
       <c r="B53" s="138"/>
       <c r="C53" s="139">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="D53" s="61"/>
       <c r="E53" s="61"/>
@@ -34079,12 +34079,12 @@
       <c r="L74" s="58"/>
       <c r="M74" s="123">
         <f>K31</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N74" s="117"/>
       <c r="O74" s="123">
         <f>M31</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P74" s="115"/>
     </row>
@@ -34467,7 +34467,7 @@
       <c r="H92" s="58"/>
       <c r="I92" s="123">
         <f>O37</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J92" s="58"/>
       <c r="K92" s="123">
@@ -34482,7 +34482,7 @@
       <c r="N92" s="117"/>
       <c r="O92" s="123">
         <f>M37</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P92" s="115"/>
     </row>
@@ -34604,7 +34604,7 @@
       <c r="H99" s="58"/>
       <c r="I99" s="123">
         <f>O39</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" s="58"/>
       <c r="K99" s="123">
@@ -34619,7 +34619,7 @@
       <c r="N99" s="117"/>
       <c r="O99" s="123">
         <f>M39</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P99" s="115"/>
     </row>
@@ -34661,7 +34661,7 @@
       <c r="F101" s="58"/>
       <c r="G101" s="123">
         <f>N40</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H101" s="58"/>
       <c r="I101" s="123">
@@ -34870,7 +34870,7 @@
       <c r="J110" s="58"/>
       <c r="K110" s="123">
         <f>I43</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L110" s="58"/>
       <c r="M110" s="123">
@@ -35216,7 +35216,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xiCqPbP2hNoAobbbqQSvypcmJdi0wqUE6/FTbNGkbMFQZfJHDoZGQuZEoVs0daJ9VIhCz7uDbMvZHR1U7yKzMQ==" saltValue="Ngv0rxXLhf1ieAsM2bDOHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="E9 G9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
+  <conditionalFormatting sqref="G9 E9 F12 H12 I9 H16 J14 F16 D14 S1:T1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35228,7 +35228,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54 I54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
+  <conditionalFormatting sqref="G86 I86 K86 M86">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128 I128 K128 M128 M126 K126 I126 G126">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142 I142 K142 M142 M140 K140 I140 G140">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 G54 K54 M54 O54 G56 I56 K56 M56 O56 G63 I63 K63 M63 O63 O65 M65 K65 I65 G65 G72 I72 K72 M72 O72 O74 M74 K74 I74 G74 G81 I81 K81 M81 O81 O83 M83 K83 I83 G83 G90 I90 K90 M90 O90 O92 M92 K92 I92 G92 G99 I99 K99 M99 O99 O101 M101 K101 I101 G101 G108 G110 I110 I108 K108 K110 M110 M108 O108 O110 P4:P5 R4:R5 T4:T5 V4:V5 V8 T8 R8 P8 N8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -35240,7 +35276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65 I65 K65 K63 I63 G63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="I65 G65 K65 K63 I63 G63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -35252,7 +35288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74 I74 K74 K72 I72 G72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="I74 G74 K74 K72 I72 G72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -35264,7 +35300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83 I83 K83 K81 I81 G81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="I83 G83 K83 K81 I81 G81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -35276,7 +35312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 I92 K92 K90 I90 G90 M90:O90 M92:O92">
+  <conditionalFormatting sqref="I92 G92 K92 K90 I90 G90 M90:O90 M92:O92">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -35288,7 +35324,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101 I101 K101 K99 I99 G99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="I92 K92 G92 G90 I90 K90 M90:O90 M92:O92">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I101 G101 K101 K99 I99 G99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -35300,7 +35348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110 I110 K110 K108 I108 G108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="I110 G110 K110 K108 I108 G108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -35312,7 +35360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114 I114 K114 M114">
+  <conditionalFormatting sqref="I114 G114 K114 M114">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -35324,7 +35372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G119 I119 K119 M119 M117 K117 I117 G117">
+  <conditionalFormatting sqref="I119 G119 K119 M119 M117 K117 I117 G117">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -35336,7 +35384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56 K56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
+  <conditionalFormatting sqref="K56 I56 G56 G54 I54 K54 S1:T1 M54:O54 M56:O56">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35348,7 +35396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65 K65 G65 G63 I63 K63 M63:O63 M65:O65">
+  <conditionalFormatting sqref="K65 I65 G65 G63 I63 K63 M63:O63 M65:O65">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35360,7 +35408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74 K74 G74 G72 I72 K72 M72:O72 M74:O74">
+  <conditionalFormatting sqref="K74 I74 G74 G72 I72 K72 M72:O72 M74:O74">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35372,7 +35420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83 K83 G83 G81 I81 K81 M81:O81 M83:O83">
+  <conditionalFormatting sqref="K83 I83 G83 G81 I81 K81 M81:O81 M83:O83">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35384,19 +35432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86 G86 K86 M86">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101 K101 G101 G99 I99 K99 M99:O99 M101:O101">
+  <conditionalFormatting sqref="K101 I101 G101 G99 I99 K99 M99:O99 M101:O101">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35408,7 +35444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110 K110 G110 G108 I108 K108 M108:O108 M110:O110">
+  <conditionalFormatting sqref="K110 I110 G110 G108 I108 K108 M108:O108 M110:O110">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35420,31 +35456,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128 G128 K128 M128 M126 K126 I126 G126">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="K128 M128 I128 G128 G126 I126 K126 M126">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
         <color theme="3" tint="0.39997558519241921"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142 G142 K142 M142 M140 K140 I140 G140">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="K142 M142 I142 G142 G140 I140 K140 M140">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
         <color theme="3" tint="0.39997558519241921"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86 M86 I86 G86">
+  <conditionalFormatting sqref="M86 K86 I86 G86">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35456,19 +35492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92 I92 G92 G90 I90 K90 M90:O90 M92:O92">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114 M114 I114 G114">
+  <conditionalFormatting sqref="M114 K114 I114 G114">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35480,7 +35504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K119 M119 I119 G119 G117 I117 K117 M117">
+  <conditionalFormatting sqref="M119 K119 I119 G119 G117 I117 K117 M117">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35492,7 +35516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M110 O110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
+  <conditionalFormatting sqref="O110 M110 K110 I110 G110 G108 I108 K108 M108 O108 O101 O99 M99 M101 K101 K99 I99 I101 G101 G99 G92 G90 G83 G81 I81 I83 I90 I92 K92 K90 M90 M92 O92 O90 K83 K81 M81 M83 O83 O81 O74 O72 O65 O63 O56 O54 M54 M56 M63 M65 M72 M74 K74 K72 K65 K63 K56 K54 I54 I56 I63 I65 I72 I74 G74 G72 G65 G63 G56 G54 V8 T8 R8 P8 N8 P4:P5 R4:R5 T4:T5 V4:V5">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35500,42 +35524,6 @@
         <cfvo type="num" val="32"/>
         <color rgb="FF0070C0"/>
         <color theme="0" tint="-0.14999847407452621"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128 K128 I128 G128 G126 I126 K126 M126">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142 K142 I142 G142 G140 I140 K140 M140">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8 T8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="15.5"/>
-        <cfvo type="num" val="31"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
@@ -35564,7 +35552,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8 R8 V4:V5 N8 P8 P4:P5 N17:N18">
+  <conditionalFormatting sqref="T8 R8 R4:R5 P8 N8 P4:P5 T4:T5 V4:V5 V8 S1:T1">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="15.5"/>
+        <cfvo type="num" val="31"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8 T6 R8 V4:V5 N8 P8 P4:P5 N17:N18">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -35576,7 +35576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6 U6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
+  <conditionalFormatting sqref="U6 W6 Y6 V9 X9 U12 W12 Y12 Y15 W15 U15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -35862,7 +35862,7 @@
       </c>
       <c r="B5">
         <f>'All strength team card math'!S15</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f>'All strength team card math'!AL15</f>
@@ -35880,7 +35880,7 @@
       <c r="I5" s="19"/>
       <c r="J5" s="45">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="19" t="str">
         <f t="shared" si="1"/>
@@ -35890,7 +35890,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19" t="str">
         <f>'Best Team All Strength'!Q5</f>
-        <v>Toronto Maple Leafs</v>
+        <v>Florida Panthers</v>
       </c>
       <c r="R5" s="45">
         <f>'Best Team All Strength'!R5</f>
@@ -35955,11 +35955,11 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19" t="str">
         <f>'Best Team All Strength'!Q6</f>
-        <v>Florida Panthers</v>
+        <v>Dallas Stars</v>
       </c>
       <c r="R6" s="45">
         <f>'Best Team All Strength'!R6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19" t="str">
@@ -35992,7 +35992,7 @@
       </c>
       <c r="B7">
         <f>'All strength team card math'!S24</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <f>'All strength team card math'!AL24</f>
@@ -36020,7 +36020,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="19" t="str">
         <f>'Best Team All Strength'!Q7</f>
-        <v>Dallas Stars</v>
+        <v>Toronto Maple Leafs</v>
       </c>
       <c r="R7" s="45">
         <f>'Best Team All Strength'!R7</f>
@@ -36029,7 +36029,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19" t="str">
         <f>'Best Team All Strength'!T7</f>
-        <v>Los Angeles Kings</v>
+        <v>Vancouver Canucks</v>
       </c>
       <c r="U7" s="45">
         <f>'Best Team All Strength'!U7</f>
@@ -36095,11 +36095,11 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19" t="str">
         <f>'Best Team All Strength'!T8</f>
-        <v>Vancouver Canucks</v>
+        <v>Los Angeles Kings</v>
       </c>
       <c r="U8" s="45">
         <f>'Best Team All Strength'!U8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8" s="19"/>
       <c r="W8" s="22" t="str">
@@ -36164,7 +36164,7 @@
       </c>
       <c r="U9" s="45">
         <f>'Best Team All Strength'!U9</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" s="19"/>
       <c r="W9" s="22" t="str">
@@ -36192,7 +36192,7 @@
       </c>
       <c r="C10">
         <f>'All strength team card math'!AL30</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="45">
         <f t="shared" si="2"/>
@@ -36220,7 +36220,7 @@
       </c>
       <c r="R10" s="45">
         <f>'Best Team All Strength'!R10</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="str">
@@ -36325,7 +36325,7 @@
       </c>
       <c r="F12" s="45">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="19" t="str">
         <f t="shared" si="3"/>
@@ -36512,7 +36512,7 @@
       </c>
       <c r="B15">
         <f>'All strength team card math'!S28</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f>'All strength team card math'!AL28</f>
@@ -36685,7 +36685,7 @@
       </c>
       <c r="U17" s="45">
         <f>'Best Team All Strength'!U17</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="22" t="str">
@@ -36774,11 +36774,11 @@
       </c>
       <c r="B19">
         <f>'All strength team card math'!S18</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <f>'All strength team card math'!AL18</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="45">
         <f t="shared" si="2"/>
@@ -36864,11 +36864,11 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19" t="str">
         <f>'Best Team All Strength'!T20</f>
-        <v>Toronto Maple Leafs</v>
+        <v>Pittsburgh Penguins</v>
       </c>
       <c r="U20" s="45">
         <f>'Best Team All Strength'!U20</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V20" s="19"/>
       <c r="W20" s="22" t="str">
@@ -36892,7 +36892,7 @@
       </c>
       <c r="B21">
         <f>'All strength team card math'!S31</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <f>'All strength team card math'!AL31</f>
@@ -36908,7 +36908,7 @@
       <c r="K21" s="19"/>
       <c r="L21" s="21">
         <f ca="1">'Best Team All Strength'!L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19" t="str">
@@ -36922,7 +36922,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19" t="str">
         <f>'Best Team All Strength'!T21</f>
-        <v>Calgary Flames</v>
+        <v>Toronto Maple Leafs</v>
       </c>
       <c r="U21" s="45">
         <f>'Best Team All Strength'!U21</f>
@@ -36976,11 +36976,11 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19" t="str">
         <f>'Best Team All Strength'!T22</f>
-        <v>Pittsburgh Penguins</v>
+        <v>Calgary Flames</v>
       </c>
       <c r="U22" s="45">
         <f>'Best Team All Strength'!U22</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="22" t="str">
@@ -37568,11 +37568,11 @@
       </c>
       <c r="C39" s="47">
         <f t="shared" si="4"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D39" s="46">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="19"/>
     </row>
@@ -37613,11 +37613,11 @@
       </c>
       <c r="C41" s="47">
         <f t="shared" si="4"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="19"/>
       <c r="AC41" s="16"/>
@@ -37681,11 +37681,11 @@
       </c>
       <c r="B44" s="46">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="46">
         <f t="shared" si="7"/>
@@ -37805,11 +37805,11 @@
       </c>
       <c r="C49" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="46">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="19"/>
       <c r="AD49" s="16"/>
@@ -37897,7 +37897,7 @@
       </c>
       <c r="B53" s="46">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="47">
         <f t="shared" si="4"/>
@@ -37905,7 +37905,7 @@
       </c>
       <c r="D53" s="46">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="19"/>
     </row>
@@ -37943,11 +37943,11 @@
       </c>
       <c r="C55" s="47">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D55" s="46">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E55" s="19"/>
       <c r="AC55" s="16"/>
@@ -38228,7 +38228,7 @@
       <c r="A68" s="26"/>
       <c r="B68" s="31">
         <f ca="1">L21</f>
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27" t="s">
@@ -38312,7 +38312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE61 AE66">
+  <conditionalFormatting sqref="AE66 AE61">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
